--- a/问卷培训教程-5公司资料表格.xlsx
+++ b/问卷培训教程-5公司资料表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11940" tabRatio="601"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Evansdata注册信息资料" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="367">
   <si>
     <t>邮箱</t>
   </si>
@@ -1242,10 +1242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1272,67 +1272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,13 +1280,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1361,9 +1300,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,10 +1347,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1393,8 +1370,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,14 +1417,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,19 +1457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,19 +1487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1511,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,13 +1571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,13 +1589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,7 +1613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,73 +1631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,11 +1666,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,6 +1701,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1699,17 +1731,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,35 +1757,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,148 +1768,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1938,14 +1938,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1953,54 +1953,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2267,44 +2267,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Z354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G205" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F202" sqref="F202"/>
+      <selection pane="bottomRight" activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="14.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="10.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.3796296296296" customWidth="1"/>
     <col min="10" max="10" width="58.75" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="13" max="13" width="6.37962962962963" customWidth="1"/>
     <col min="14" max="14" width="4.75" customWidth="1"/>
     <col min="15" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="7.125" customWidth="1"/>
+    <col min="16" max="16" width="7.12962962962963" customWidth="1"/>
     <col min="17" max="17" width="27.75" customWidth="1"/>
-    <col min="18" max="18" width="77.0769230769231" customWidth="1"/>
+    <col min="18" max="18" width="77.0740740740741" customWidth="1"/>
     <col min="19" max="19" width="18.25" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="22" max="22" width="18.625" customWidth="1"/>
+    <col min="22" max="22" width="18.6296296296296" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="14.875" customWidth="1"/>
-    <col min="25" max="25" width="11.375" customWidth="1"/>
+    <col min="24" max="24" width="14.8796296296296" customWidth="1"/>
+    <col min="25" max="25" width="11.3796296296296" customWidth="1"/>
     <col min="26" max="26" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2345,34 +2345,34 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="9" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="9" t="s">
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2404,8 +2404,8 @@
       <c r="Q2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="11" t="s">
         <v>25</v>
       </c>
@@ -2415,10 +2415,10 @@
       <c r="V2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" customFormat="1" ht="18.75" customHeight="1" spans="1:26">
       <c r="A3" s="5"/>
@@ -2445,7 +2445,7 @@
         <f t="shared" ref="I3:I48" si="0">F3-23</f>
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -2469,7 +2469,7 @@
       <c r="Q3" s="6">
         <v>20</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S3" s="6" t="s">
@@ -2520,7 +2520,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -2544,7 +2544,7 @@
       <c r="Q4" s="6">
         <v>30</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S4" s="6" t="s">
@@ -2595,7 +2595,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -2619,7 +2619,7 @@
       <c r="Q5" s="6">
         <v>20</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S5" s="6" t="s">
@@ -2670,7 +2670,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -2694,7 +2694,7 @@
       <c r="Q6" s="6">
         <v>20</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S6" s="6" t="s">
@@ -2745,7 +2745,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -2769,7 +2769,7 @@
       <c r="Q7" s="6">
         <v>20</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S7" s="6" t="s">
@@ -2820,7 +2820,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -2844,7 +2844,7 @@
       <c r="Q8" s="6">
         <v>20</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S8" s="6" t="s">
@@ -2895,7 +2895,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -2919,7 +2919,7 @@
       <c r="Q9" s="6">
         <v>20</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S9" s="6" t="s">
@@ -2970,7 +2970,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -2994,7 +2994,7 @@
       <c r="Q10" s="6">
         <v>30</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S10" s="6" t="s">
@@ -3045,7 +3045,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -3069,7 +3069,7 @@
       <c r="Q11" s="6">
         <v>20</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S11" s="6" t="s">
@@ -3120,7 +3120,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -3144,7 +3144,7 @@
       <c r="Q12" s="6">
         <v>10</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S12" s="6" t="s">
@@ -3195,7 +3195,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -3219,7 +3219,7 @@
       <c r="Q13" s="6">
         <v>20</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S13" s="6" t="s">
@@ -3270,7 +3270,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -3294,7 +3294,7 @@
       <c r="Q14" s="6">
         <v>10</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S14" s="6" t="s">
@@ -3345,7 +3345,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -3369,7 +3369,7 @@
       <c r="Q15" s="6">
         <v>30</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S15" s="6" t="s">
@@ -3420,7 +3420,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -3444,7 +3444,7 @@
       <c r="Q16" s="6">
         <v>10</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S16" s="6" t="s">
@@ -3495,7 +3495,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -3519,7 +3519,7 @@
       <c r="Q17" s="6">
         <v>30</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S17" s="6" t="s">
@@ -3570,7 +3570,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -3594,7 +3594,7 @@
       <c r="Q18" s="6">
         <v>30</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S18" s="6" t="s">
@@ -3645,7 +3645,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -3669,7 +3669,7 @@
       <c r="Q19" s="6">
         <v>10</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S19" s="6" t="s">
@@ -3720,7 +3720,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -3744,7 +3744,7 @@
       <c r="Q20" s="6">
         <v>20</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S20" s="6" t="s">
@@ -3795,7 +3795,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -3819,7 +3819,7 @@
       <c r="Q21" s="6">
         <v>10</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S21" s="6" t="s">
@@ -3870,7 +3870,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -3894,7 +3894,7 @@
       <c r="Q22" s="6">
         <v>30</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S22" s="6" t="s">
@@ -3945,7 +3945,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K23" s="6" t="s">
@@ -3969,7 +3969,7 @@
       <c r="Q23" s="6">
         <v>30</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S23" s="6" t="s">
@@ -4020,7 +4020,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -4044,7 +4044,7 @@
       <c r="Q24" s="6">
         <v>20</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S24" s="6" t="s">
@@ -4095,7 +4095,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K25" s="6" t="s">
@@ -4119,7 +4119,7 @@
       <c r="Q25" s="6">
         <v>30</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S25" s="6" t="s">
@@ -4170,7 +4170,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K26" s="6" t="s">
@@ -4194,7 +4194,7 @@
       <c r="Q26" s="6">
         <v>20</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S26" s="6" t="s">
@@ -4245,7 +4245,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -4269,7 +4269,7 @@
       <c r="Q27" s="6">
         <v>20</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S27" s="6" t="s">
@@ -4320,7 +4320,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -4344,7 +4344,7 @@
       <c r="Q28" s="6">
         <v>20</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S28" s="6" t="s">
@@ -4395,7 +4395,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K29" s="6" t="s">
@@ -4419,7 +4419,7 @@
       <c r="Q29" s="6">
         <v>20</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S29" s="6" t="s">
@@ -4470,7 +4470,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K30" s="6" t="s">
@@ -4494,7 +4494,7 @@
       <c r="Q30" s="6">
         <v>20</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S30" s="6" t="s">
@@ -4545,7 +4545,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -4569,7 +4569,7 @@
       <c r="Q31" s="6">
         <v>30</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="R31" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S31" s="6" t="s">
@@ -4620,7 +4620,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K32" s="6" t="s">
@@ -4644,7 +4644,7 @@
       <c r="Q32" s="6">
         <v>20</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S32" s="6" t="s">
@@ -4695,7 +4695,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K33" s="6" t="s">
@@ -4719,7 +4719,7 @@
       <c r="Q33" s="6">
         <v>10</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S33" s="6" t="s">
@@ -4770,7 +4770,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K34" s="6" t="s">
@@ -4794,7 +4794,7 @@
       <c r="Q34" s="6">
         <v>20</v>
       </c>
-      <c r="R34" s="8" t="s">
+      <c r="R34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S34" s="6" t="s">
@@ -4845,7 +4845,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K35" s="6" t="s">
@@ -4869,7 +4869,7 @@
       <c r="Q35" s="6">
         <v>10</v>
       </c>
-      <c r="R35" s="8" t="s">
+      <c r="R35" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S35" s="6" t="s">
@@ -4920,7 +4920,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K36" s="6" t="s">
@@ -4944,7 +4944,7 @@
       <c r="Q36" s="6">
         <v>30</v>
       </c>
-      <c r="R36" s="8" t="s">
+      <c r="R36" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S36" s="6" t="s">
@@ -4995,7 +4995,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K37" s="6" t="s">
@@ -5019,7 +5019,7 @@
       <c r="Q37" s="6">
         <v>10</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="R37" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S37" s="6" t="s">
@@ -5070,7 +5070,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K38" s="6" t="s">
@@ -5094,7 +5094,7 @@
       <c r="Q38" s="6">
         <v>30</v>
       </c>
-      <c r="R38" s="8" t="s">
+      <c r="R38" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S38" s="6" t="s">
@@ -5145,7 +5145,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K39" s="6" t="s">
@@ -5169,7 +5169,7 @@
       <c r="Q39" s="6">
         <v>30</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="R39" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S39" s="6" t="s">
@@ -5220,7 +5220,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K40" s="6" t="s">
@@ -5244,7 +5244,7 @@
       <c r="Q40" s="6">
         <v>10</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R40" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S40" s="6" t="s">
@@ -5295,7 +5295,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K41" s="6" t="s">
@@ -5319,7 +5319,7 @@
       <c r="Q41" s="6">
         <v>20</v>
       </c>
-      <c r="R41" s="8" t="s">
+      <c r="R41" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S41" s="6" t="s">
@@ -5370,7 +5370,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K42" s="6" t="s">
@@ -5394,7 +5394,7 @@
       <c r="Q42" s="6">
         <v>10</v>
       </c>
-      <c r="R42" s="8" t="s">
+      <c r="R42" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S42" s="6" t="s">
@@ -5445,7 +5445,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -5469,7 +5469,7 @@
       <c r="Q43" s="6">
         <v>30</v>
       </c>
-      <c r="R43" s="8" t="s">
+      <c r="R43" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S43" s="6" t="s">
@@ -5520,7 +5520,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K44" s="6" t="s">
@@ -5544,7 +5544,7 @@
       <c r="Q44" s="6">
         <v>30</v>
       </c>
-      <c r="R44" s="8" t="s">
+      <c r="R44" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S44" s="6" t="s">
@@ -5595,7 +5595,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K45" s="6" t="s">
@@ -5619,7 +5619,7 @@
       <c r="Q45" s="6">
         <v>20</v>
       </c>
-      <c r="R45" s="8" t="s">
+      <c r="R45" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S45" s="6" t="s">
@@ -5670,7 +5670,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K46" s="6" t="s">
@@ -5694,7 +5694,7 @@
       <c r="Q46" s="6">
         <v>30</v>
       </c>
-      <c r="R46" s="8" t="s">
+      <c r="R46" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S46" s="6" t="s">
@@ -5745,7 +5745,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -5769,7 +5769,7 @@
       <c r="Q47" s="6">
         <v>20</v>
       </c>
-      <c r="R47" s="8" t="s">
+      <c r="R47" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S47" s="6" t="s">
@@ -5820,7 +5820,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K48" s="6" t="s">
@@ -5844,7 +5844,7 @@
       <c r="Q48" s="6">
         <v>20</v>
       </c>
-      <c r="R48" s="8" t="s">
+      <c r="R48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S48" s="6" t="s">
@@ -5895,7 +5895,7 @@
         <f t="shared" ref="I49:I112" si="1">F49-23</f>
         <v>12</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K49" s="6" t="s">
@@ -5919,7 +5919,7 @@
       <c r="Q49" s="6">
         <v>20</v>
       </c>
-      <c r="R49" s="8" t="s">
+      <c r="R49" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S49" s="6" t="s">
@@ -5970,7 +5970,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="6" t="s">
@@ -5994,7 +5994,7 @@
       <c r="Q50" s="6">
         <v>20</v>
       </c>
-      <c r="R50" s="8" t="s">
+      <c r="R50" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S50" s="6" t="s">
@@ -6045,7 +6045,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K51" s="6" t="s">
@@ -6069,7 +6069,7 @@
       <c r="Q51" s="6">
         <v>20</v>
       </c>
-      <c r="R51" s="8" t="s">
+      <c r="R51" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S51" s="6" t="s">
@@ -6120,7 +6120,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K52" s="6" t="s">
@@ -6144,7 +6144,7 @@
       <c r="Q52" s="6">
         <v>30</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="R52" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S52" s="6" t="s">
@@ -6195,7 +6195,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K53" s="6" t="s">
@@ -6219,7 +6219,7 @@
       <c r="Q53" s="6">
         <v>20</v>
       </c>
-      <c r="R53" s="8" t="s">
+      <c r="R53" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="6" t="s">
@@ -6270,7 +6270,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K54" s="6" t="s">
@@ -6294,7 +6294,7 @@
       <c r="Q54" s="6">
         <v>10</v>
       </c>
-      <c r="R54" s="8" t="s">
+      <c r="R54" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S54" s="6" t="s">
@@ -6345,7 +6345,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K55" s="6" t="s">
@@ -6369,7 +6369,7 @@
       <c r="Q55" s="6">
         <v>20</v>
       </c>
-      <c r="R55" s="8" t="s">
+      <c r="R55" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S55" s="6" t="s">
@@ -6420,7 +6420,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K56" s="6" t="s">
@@ -6444,7 +6444,7 @@
       <c r="Q56" s="6">
         <v>10</v>
       </c>
-      <c r="R56" s="8" t="s">
+      <c r="R56" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S56" s="6" t="s">
@@ -6495,7 +6495,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K57" s="6" t="s">
@@ -6519,7 +6519,7 @@
       <c r="Q57" s="6">
         <v>30</v>
       </c>
-      <c r="R57" s="8" t="s">
+      <c r="R57" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S57" s="6" t="s">
@@ -6570,7 +6570,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K58" s="6" t="s">
@@ -6594,7 +6594,7 @@
       <c r="Q58" s="6">
         <v>10</v>
       </c>
-      <c r="R58" s="8" t="s">
+      <c r="R58" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S58" s="6" t="s">
@@ -6645,7 +6645,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K59" s="6" t="s">
@@ -6669,7 +6669,7 @@
       <c r="Q59" s="6">
         <v>30</v>
       </c>
-      <c r="R59" s="8" t="s">
+      <c r="R59" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S59" s="6" t="s">
@@ -6720,7 +6720,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K60" s="6" t="s">
@@ -6744,7 +6744,7 @@
       <c r="Q60" s="6">
         <v>30</v>
       </c>
-      <c r="R60" s="8" t="s">
+      <c r="R60" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S60" s="6" t="s">
@@ -6795,7 +6795,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K61" s="6" t="s">
@@ -6819,7 +6819,7 @@
       <c r="Q61" s="6">
         <v>10</v>
       </c>
-      <c r="R61" s="8" t="s">
+      <c r="R61" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S61" s="6" t="s">
@@ -6870,7 +6870,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K62" s="6" t="s">
@@ -6894,7 +6894,7 @@
       <c r="Q62" s="6">
         <v>20</v>
       </c>
-      <c r="R62" s="8" t="s">
+      <c r="R62" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S62" s="6" t="s">
@@ -6945,7 +6945,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K63" s="6" t="s">
@@ -6969,7 +6969,7 @@
       <c r="Q63" s="6">
         <v>10</v>
       </c>
-      <c r="R63" s="8" t="s">
+      <c r="R63" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S63" s="6" t="s">
@@ -7020,7 +7020,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K64" s="6" t="s">
@@ -7044,7 +7044,7 @@
       <c r="Q64" s="6">
         <v>30</v>
       </c>
-      <c r="R64" s="8" t="s">
+      <c r="R64" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S64" s="6" t="s">
@@ -7095,7 +7095,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K65" s="6" t="s">
@@ -7119,7 +7119,7 @@
       <c r="Q65" s="6">
         <v>30</v>
       </c>
-      <c r="R65" s="8" t="s">
+      <c r="R65" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S65" s="6" t="s">
@@ -7170,7 +7170,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K66" s="6" t="s">
@@ -7194,7 +7194,7 @@
       <c r="Q66" s="6">
         <v>20</v>
       </c>
-      <c r="R66" s="8" t="s">
+      <c r="R66" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S66" s="6" t="s">
@@ -7245,7 +7245,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K67" s="6" t="s">
@@ -7269,7 +7269,7 @@
       <c r="Q67" s="6">
         <v>30</v>
       </c>
-      <c r="R67" s="8" t="s">
+      <c r="R67" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S67" s="6" t="s">
@@ -7320,7 +7320,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K68" s="6" t="s">
@@ -7344,7 +7344,7 @@
       <c r="Q68" s="6">
         <v>20</v>
       </c>
-      <c r="R68" s="8" t="s">
+      <c r="R68" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S68" s="6" t="s">
@@ -7395,7 +7395,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K69" s="6" t="s">
@@ -7419,7 +7419,7 @@
       <c r="Q69" s="6">
         <v>20</v>
       </c>
-      <c r="R69" s="8" t="s">
+      <c r="R69" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S69" s="6" t="s">
@@ -7470,7 +7470,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K70" s="6" t="s">
@@ -7494,7 +7494,7 @@
       <c r="Q70" s="6">
         <v>20</v>
       </c>
-      <c r="R70" s="8" t="s">
+      <c r="R70" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S70" s="6" t="s">
@@ -7545,7 +7545,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K71" s="6" t="s">
@@ -7569,7 +7569,7 @@
       <c r="Q71" s="6">
         <v>20</v>
       </c>
-      <c r="R71" s="8" t="s">
+      <c r="R71" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S71" s="6" t="s">
@@ -7620,7 +7620,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K72" s="6" t="s">
@@ -7644,7 +7644,7 @@
       <c r="Q72" s="6">
         <v>20</v>
       </c>
-      <c r="R72" s="8" t="s">
+      <c r="R72" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S72" s="6" t="s">
@@ -7695,7 +7695,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K73" s="6" t="s">
@@ -7719,7 +7719,7 @@
       <c r="Q73" s="6">
         <v>30</v>
       </c>
-      <c r="R73" s="8" t="s">
+      <c r="R73" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S73" s="6" t="s">
@@ -7770,7 +7770,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K74" s="6" t="s">
@@ -7794,7 +7794,7 @@
       <c r="Q74" s="6">
         <v>20</v>
       </c>
-      <c r="R74" s="8" t="s">
+      <c r="R74" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S74" s="6" t="s">
@@ -7845,7 +7845,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K75" s="6" t="s">
@@ -7869,7 +7869,7 @@
       <c r="Q75" s="6">
         <v>10</v>
       </c>
-      <c r="R75" s="8" t="s">
+      <c r="R75" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S75" s="6" t="s">
@@ -7920,7 +7920,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K76" s="6" t="s">
@@ -7944,7 +7944,7 @@
       <c r="Q76" s="6">
         <v>20</v>
       </c>
-      <c r="R76" s="8" t="s">
+      <c r="R76" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S76" s="6" t="s">
@@ -7995,7 +7995,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K77" s="6" t="s">
@@ -8019,7 +8019,7 @@
       <c r="Q77" s="6">
         <v>10</v>
       </c>
-      <c r="R77" s="8" t="s">
+      <c r="R77" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S77" s="6" t="s">
@@ -8070,7 +8070,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K78" s="6" t="s">
@@ -8094,7 +8094,7 @@
       <c r="Q78" s="6">
         <v>30</v>
       </c>
-      <c r="R78" s="8" t="s">
+      <c r="R78" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S78" s="6" t="s">
@@ -8145,7 +8145,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K79" s="6" t="s">
@@ -8169,7 +8169,7 @@
       <c r="Q79" s="6">
         <v>10</v>
       </c>
-      <c r="R79" s="8" t="s">
+      <c r="R79" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S79" s="6" t="s">
@@ -8220,7 +8220,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K80" s="6" t="s">
@@ -8244,7 +8244,7 @@
       <c r="Q80" s="6">
         <v>30</v>
       </c>
-      <c r="R80" s="8" t="s">
+      <c r="R80" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S80" s="6" t="s">
@@ -8295,7 +8295,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K81" s="6" t="s">
@@ -8319,7 +8319,7 @@
       <c r="Q81" s="6">
         <v>30</v>
       </c>
-      <c r="R81" s="8" t="s">
+      <c r="R81" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S81" s="6" t="s">
@@ -8370,7 +8370,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K82" s="6" t="s">
@@ -8394,7 +8394,7 @@
       <c r="Q82" s="6">
         <v>10</v>
       </c>
-      <c r="R82" s="8" t="s">
+      <c r="R82" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S82" s="6" t="s">
@@ -8445,7 +8445,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K83" s="6" t="s">
@@ -8469,7 +8469,7 @@
       <c r="Q83" s="6">
         <v>20</v>
       </c>
-      <c r="R83" s="8" t="s">
+      <c r="R83" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S83" s="6" t="s">
@@ -8520,7 +8520,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K84" s="6" t="s">
@@ -8544,7 +8544,7 @@
       <c r="Q84" s="6">
         <v>10</v>
       </c>
-      <c r="R84" s="8" t="s">
+      <c r="R84" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S84" s="6" t="s">
@@ -8595,7 +8595,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K85" s="6" t="s">
@@ -8619,7 +8619,7 @@
       <c r="Q85" s="6">
         <v>30</v>
       </c>
-      <c r="R85" s="8" t="s">
+      <c r="R85" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S85" s="6" t="s">
@@ -8670,7 +8670,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K86" s="6" t="s">
@@ -8694,7 +8694,7 @@
       <c r="Q86" s="6">
         <v>30</v>
       </c>
-      <c r="R86" s="8" t="s">
+      <c r="R86" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S86" s="6" t="s">
@@ -8745,7 +8745,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K87" s="6" t="s">
@@ -8769,7 +8769,7 @@
       <c r="Q87" s="6">
         <v>20</v>
       </c>
-      <c r="R87" s="8" t="s">
+      <c r="R87" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S87" s="6" t="s">
@@ -8820,7 +8820,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K88" s="6" t="s">
@@ -8844,7 +8844,7 @@
       <c r="Q88" s="6">
         <v>30</v>
       </c>
-      <c r="R88" s="8" t="s">
+      <c r="R88" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S88" s="6" t="s">
@@ -8895,7 +8895,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K89" s="6" t="s">
@@ -8919,7 +8919,7 @@
       <c r="Q89" s="6">
         <v>20</v>
       </c>
-      <c r="R89" s="8" t="s">
+      <c r="R89" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S89" s="6" t="s">
@@ -8970,7 +8970,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K90" s="6" t="s">
@@ -8994,7 +8994,7 @@
       <c r="Q90" s="6">
         <v>20</v>
       </c>
-      <c r="R90" s="8" t="s">
+      <c r="R90" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S90" s="6" t="s">
@@ -9045,7 +9045,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K91" s="6" t="s">
@@ -9069,7 +9069,7 @@
       <c r="Q91" s="6">
         <v>20</v>
       </c>
-      <c r="R91" s="8" t="s">
+      <c r="R91" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S91" s="6" t="s">
@@ -9120,7 +9120,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K92" s="6" t="s">
@@ -9144,7 +9144,7 @@
       <c r="Q92" s="6">
         <v>20</v>
       </c>
-      <c r="R92" s="8" t="s">
+      <c r="R92" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S92" s="6" t="s">
@@ -9195,7 +9195,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K93" s="6" t="s">
@@ -9219,7 +9219,7 @@
       <c r="Q93" s="6">
         <v>20</v>
       </c>
-      <c r="R93" s="8" t="s">
+      <c r="R93" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S93" s="6" t="s">
@@ -9270,7 +9270,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="J94" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K94" s="6" t="s">
@@ -9294,7 +9294,7 @@
       <c r="Q94" s="6">
         <v>30</v>
       </c>
-      <c r="R94" s="8" t="s">
+      <c r="R94" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S94" s="6" t="s">
@@ -9345,7 +9345,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K95" s="6" t="s">
@@ -9369,7 +9369,7 @@
       <c r="Q95" s="6">
         <v>20</v>
       </c>
-      <c r="R95" s="8" t="s">
+      <c r="R95" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S95" s="6" t="s">
@@ -9420,7 +9420,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K96" s="6" t="s">
@@ -9444,7 +9444,7 @@
       <c r="Q96" s="6">
         <v>10</v>
       </c>
-      <c r="R96" s="8" t="s">
+      <c r="R96" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S96" s="6" t="s">
@@ -9495,7 +9495,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K97" s="6" t="s">
@@ -9519,7 +9519,7 @@
       <c r="Q97" s="6">
         <v>20</v>
       </c>
-      <c r="R97" s="8" t="s">
+      <c r="R97" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S97" s="6" t="s">
@@ -9570,7 +9570,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K98" s="6" t="s">
@@ -9594,7 +9594,7 @@
       <c r="Q98" s="6">
         <v>10</v>
       </c>
-      <c r="R98" s="8" t="s">
+      <c r="R98" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S98" s="6" t="s">
@@ -9645,7 +9645,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K99" s="6" t="s">
@@ -9669,7 +9669,7 @@
       <c r="Q99" s="6">
         <v>30</v>
       </c>
-      <c r="R99" s="8" t="s">
+      <c r="R99" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S99" s="6" t="s">
@@ -9720,7 +9720,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K100" s="6" t="s">
@@ -9744,7 +9744,7 @@
       <c r="Q100" s="6">
         <v>10</v>
       </c>
-      <c r="R100" s="8" t="s">
+      <c r="R100" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S100" s="6" t="s">
@@ -9795,7 +9795,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K101" s="6" t="s">
@@ -9819,7 +9819,7 @@
       <c r="Q101" s="6">
         <v>30</v>
       </c>
-      <c r="R101" s="8" t="s">
+      <c r="R101" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S101" s="6" t="s">
@@ -9870,7 +9870,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K102" s="6" t="s">
@@ -9894,7 +9894,7 @@
       <c r="Q102" s="6">
         <v>30</v>
       </c>
-      <c r="R102" s="8" t="s">
+      <c r="R102" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S102" s="6" t="s">
@@ -9945,7 +9945,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K103" s="6" t="s">
@@ -9969,7 +9969,7 @@
       <c r="Q103" s="6">
         <v>10</v>
       </c>
-      <c r="R103" s="8" t="s">
+      <c r="R103" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S103" s="6" t="s">
@@ -10020,7 +10020,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J104" s="8" t="s">
+      <c r="J104" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K104" s="6" t="s">
@@ -10044,7 +10044,7 @@
       <c r="Q104" s="6">
         <v>20</v>
       </c>
-      <c r="R104" s="8" t="s">
+      <c r="R104" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S104" s="6" t="s">
@@ -10095,7 +10095,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K105" s="6" t="s">
@@ -10119,7 +10119,7 @@
       <c r="Q105" s="6">
         <v>10</v>
       </c>
-      <c r="R105" s="8" t="s">
+      <c r="R105" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S105" s="6" t="s">
@@ -10170,7 +10170,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="J106" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K106" s="6" t="s">
@@ -10194,7 +10194,7 @@
       <c r="Q106" s="6">
         <v>30</v>
       </c>
-      <c r="R106" s="8" t="s">
+      <c r="R106" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S106" s="6" t="s">
@@ -10245,7 +10245,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K107" s="6" t="s">
@@ -10269,7 +10269,7 @@
       <c r="Q107" s="6">
         <v>30</v>
       </c>
-      <c r="R107" s="8" t="s">
+      <c r="R107" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S107" s="6" t="s">
@@ -10320,7 +10320,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J108" s="8" t="s">
+      <c r="J108" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K108" s="6" t="s">
@@ -10344,7 +10344,7 @@
       <c r="Q108" s="6">
         <v>20</v>
       </c>
-      <c r="R108" s="8" t="s">
+      <c r="R108" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S108" s="6" t="s">
@@ -10395,7 +10395,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J109" s="8" t="s">
+      <c r="J109" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K109" s="6" t="s">
@@ -10419,7 +10419,7 @@
       <c r="Q109" s="6">
         <v>30</v>
       </c>
-      <c r="R109" s="8" t="s">
+      <c r="R109" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S109" s="6" t="s">
@@ -10470,7 +10470,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="J110" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K110" s="6" t="s">
@@ -10494,7 +10494,7 @@
       <c r="Q110" s="6">
         <v>20</v>
       </c>
-      <c r="R110" s="8" t="s">
+      <c r="R110" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S110" s="6" t="s">
@@ -10545,7 +10545,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K111" s="6" t="s">
@@ -10569,7 +10569,7 @@
       <c r="Q111" s="6">
         <v>20</v>
       </c>
-      <c r="R111" s="8" t="s">
+      <c r="R111" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S111" s="6" t="s">
@@ -10620,7 +10620,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J112" s="8" t="s">
+      <c r="J112" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K112" s="6" t="s">
@@ -10644,7 +10644,7 @@
       <c r="Q112" s="6">
         <v>20</v>
       </c>
-      <c r="R112" s="8" t="s">
+      <c r="R112" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S112" s="6" t="s">
@@ -10695,7 +10695,7 @@
         <f t="shared" ref="I113:I176" si="2">F113-23</f>
         <v>9</v>
       </c>
-      <c r="J113" s="8" t="s">
+      <c r="J113" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K113" s="6" t="s">
@@ -10719,7 +10719,7 @@
       <c r="Q113" s="6">
         <v>20</v>
       </c>
-      <c r="R113" s="8" t="s">
+      <c r="R113" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S113" s="6" t="s">
@@ -10770,7 +10770,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J114" s="8" t="s">
+      <c r="J114" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K114" s="6" t="s">
@@ -10794,7 +10794,7 @@
       <c r="Q114" s="6">
         <v>20</v>
       </c>
-      <c r="R114" s="8" t="s">
+      <c r="R114" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S114" s="6" t="s">
@@ -10845,7 +10845,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="J115" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K115" s="6" t="s">
@@ -10869,7 +10869,7 @@
       <c r="Q115" s="6">
         <v>20</v>
       </c>
-      <c r="R115" s="8" t="s">
+      <c r="R115" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S115" s="6" t="s">
@@ -10920,7 +10920,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J116" s="8" t="s">
+      <c r="J116" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K116" s="6" t="s">
@@ -10944,7 +10944,7 @@
       <c r="Q116" s="6">
         <v>30</v>
       </c>
-      <c r="R116" s="8" t="s">
+      <c r="R116" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S116" s="6" t="s">
@@ -10995,7 +10995,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J117" s="8" t="s">
+      <c r="J117" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K117" s="6" t="s">
@@ -11019,7 +11019,7 @@
       <c r="Q117" s="6">
         <v>20</v>
       </c>
-      <c r="R117" s="8" t="s">
+      <c r="R117" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S117" s="6" t="s">
@@ -11070,7 +11070,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J118" s="8" t="s">
+      <c r="J118" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K118" s="6" t="s">
@@ -11094,7 +11094,7 @@
       <c r="Q118" s="6">
         <v>10</v>
       </c>
-      <c r="R118" s="8" t="s">
+      <c r="R118" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S118" s="6" t="s">
@@ -11145,7 +11145,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J119" s="8" t="s">
+      <c r="J119" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K119" s="6" t="s">
@@ -11169,7 +11169,7 @@
       <c r="Q119" s="6">
         <v>20</v>
       </c>
-      <c r="R119" s="8" t="s">
+      <c r="R119" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S119" s="6" t="s">
@@ -11220,7 +11220,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J120" s="8" t="s">
+      <c r="J120" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K120" s="6" t="s">
@@ -11244,7 +11244,7 @@
       <c r="Q120" s="6">
         <v>10</v>
       </c>
-      <c r="R120" s="8" t="s">
+      <c r="R120" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S120" s="6" t="s">
@@ -11295,7 +11295,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J121" s="8" t="s">
+      <c r="J121" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K121" s="6" t="s">
@@ -11319,7 +11319,7 @@
       <c r="Q121" s="6">
         <v>30</v>
       </c>
-      <c r="R121" s="8" t="s">
+      <c r="R121" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S121" s="6" t="s">
@@ -11370,7 +11370,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J122" s="8" t="s">
+      <c r="J122" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K122" s="6" t="s">
@@ -11394,7 +11394,7 @@
       <c r="Q122" s="6">
         <v>10</v>
       </c>
-      <c r="R122" s="8" t="s">
+      <c r="R122" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S122" s="6" t="s">
@@ -11445,7 +11445,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J123" s="8" t="s">
+      <c r="J123" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K123" s="6" t="s">
@@ -11469,7 +11469,7 @@
       <c r="Q123" s="6">
         <v>30</v>
       </c>
-      <c r="R123" s="8" t="s">
+      <c r="R123" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S123" s="6" t="s">
@@ -11520,7 +11520,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J124" s="8" t="s">
+      <c r="J124" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K124" s="6" t="s">
@@ -11544,7 +11544,7 @@
       <c r="Q124" s="6">
         <v>30</v>
       </c>
-      <c r="R124" s="8" t="s">
+      <c r="R124" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S124" s="6" t="s">
@@ -11595,7 +11595,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J125" s="8" t="s">
+      <c r="J125" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K125" s="6" t="s">
@@ -11619,7 +11619,7 @@
       <c r="Q125" s="6">
         <v>10</v>
       </c>
-      <c r="R125" s="8" t="s">
+      <c r="R125" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S125" s="6" t="s">
@@ -11670,7 +11670,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J126" s="8" t="s">
+      <c r="J126" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K126" s="6" t="s">
@@ -11694,7 +11694,7 @@
       <c r="Q126" s="6">
         <v>20</v>
       </c>
-      <c r="R126" s="8" t="s">
+      <c r="R126" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S126" s="6" t="s">
@@ -11745,7 +11745,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J127" s="8" t="s">
+      <c r="J127" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K127" s="6" t="s">
@@ -11769,7 +11769,7 @@
       <c r="Q127" s="6">
         <v>10</v>
       </c>
-      <c r="R127" s="8" t="s">
+      <c r="R127" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S127" s="6" t="s">
@@ -11820,7 +11820,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J128" s="8" t="s">
+      <c r="J128" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K128" s="6" t="s">
@@ -11844,7 +11844,7 @@
       <c r="Q128" s="6">
         <v>30</v>
       </c>
-      <c r="R128" s="8" t="s">
+      <c r="R128" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S128" s="6" t="s">
@@ -11895,7 +11895,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J129" s="8" t="s">
+      <c r="J129" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K129" s="6" t="s">
@@ -11919,7 +11919,7 @@
       <c r="Q129" s="6">
         <v>20</v>
       </c>
-      <c r="R129" s="8" t="s">
+      <c r="R129" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S129" s="6" t="s">
@@ -11970,7 +11970,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J130" s="8" t="s">
+      <c r="J130" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K130" s="6" t="s">
@@ -11994,7 +11994,7 @@
       <c r="Q130" s="6">
         <v>20</v>
       </c>
-      <c r="R130" s="8" t="s">
+      <c r="R130" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S130" s="6" t="s">
@@ -12045,7 +12045,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J131" s="8" t="s">
+      <c r="J131" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K131" s="6" t="s">
@@ -12069,7 +12069,7 @@
       <c r="Q131" s="6">
         <v>20</v>
       </c>
-      <c r="R131" s="8" t="s">
+      <c r="R131" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S131" s="6" t="s">
@@ -12120,7 +12120,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J132" s="8" t="s">
+      <c r="J132" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K132" s="6" t="s">
@@ -12144,7 +12144,7 @@
       <c r="Q132" s="6">
         <v>20</v>
       </c>
-      <c r="R132" s="8" t="s">
+      <c r="R132" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S132" s="6" t="s">
@@ -12195,7 +12195,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J133" s="8" t="s">
+      <c r="J133" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K133" s="6" t="s">
@@ -12219,7 +12219,7 @@
       <c r="Q133" s="6">
         <v>30</v>
       </c>
-      <c r="R133" s="8" t="s">
+      <c r="R133" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S133" s="6" t="s">
@@ -12270,7 +12270,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J134" s="8" t="s">
+      <c r="J134" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K134" s="6" t="s">
@@ -12294,7 +12294,7 @@
       <c r="Q134" s="6">
         <v>20</v>
       </c>
-      <c r="R134" s="8" t="s">
+      <c r="R134" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S134" s="6" t="s">
@@ -12345,7 +12345,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J135" s="8" t="s">
+      <c r="J135" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K135" s="6" t="s">
@@ -12369,7 +12369,7 @@
       <c r="Q135" s="6">
         <v>10</v>
       </c>
-      <c r="R135" s="8" t="s">
+      <c r="R135" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S135" s="6" t="s">
@@ -12420,7 +12420,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J136" s="8" t="s">
+      <c r="J136" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K136" s="6" t="s">
@@ -12444,7 +12444,7 @@
       <c r="Q136" s="6">
         <v>20</v>
       </c>
-      <c r="R136" s="8" t="s">
+      <c r="R136" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S136" s="6" t="s">
@@ -12495,7 +12495,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J137" s="8" t="s">
+      <c r="J137" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K137" s="6" t="s">
@@ -12519,7 +12519,7 @@
       <c r="Q137" s="6">
         <v>10</v>
       </c>
-      <c r="R137" s="8" t="s">
+      <c r="R137" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S137" s="6" t="s">
@@ -12570,7 +12570,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J138" s="8" t="s">
+      <c r="J138" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K138" s="6" t="s">
@@ -12594,7 +12594,7 @@
       <c r="Q138" s="6">
         <v>30</v>
       </c>
-      <c r="R138" s="8" t="s">
+      <c r="R138" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S138" s="6" t="s">
@@ -12645,7 +12645,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J139" s="8" t="s">
+      <c r="J139" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K139" s="6" t="s">
@@ -12669,7 +12669,7 @@
       <c r="Q139" s="6">
         <v>10</v>
       </c>
-      <c r="R139" s="8" t="s">
+      <c r="R139" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S139" s="6" t="s">
@@ -12720,7 +12720,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J140" s="8" t="s">
+      <c r="J140" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K140" s="6" t="s">
@@ -12744,7 +12744,7 @@
       <c r="Q140" s="6">
         <v>30</v>
       </c>
-      <c r="R140" s="8" t="s">
+      <c r="R140" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S140" s="6" t="s">
@@ -12795,7 +12795,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J141" s="8" t="s">
+      <c r="J141" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K141" s="6" t="s">
@@ -12819,7 +12819,7 @@
       <c r="Q141" s="6">
         <v>30</v>
       </c>
-      <c r="R141" s="8" t="s">
+      <c r="R141" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S141" s="6" t="s">
@@ -12870,7 +12870,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J142" s="8" t="s">
+      <c r="J142" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K142" s="6" t="s">
@@ -12894,7 +12894,7 @@
       <c r="Q142" s="6">
         <v>10</v>
       </c>
-      <c r="R142" s="8" t="s">
+      <c r="R142" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S142" s="6" t="s">
@@ -12945,7 +12945,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J143" s="8" t="s">
+      <c r="J143" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K143" s="6" t="s">
@@ -12969,7 +12969,7 @@
       <c r="Q143" s="6">
         <v>20</v>
       </c>
-      <c r="R143" s="8" t="s">
+      <c r="R143" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S143" s="6" t="s">
@@ -13020,7 +13020,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J144" s="8" t="s">
+      <c r="J144" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K144" s="6" t="s">
@@ -13044,7 +13044,7 @@
       <c r="Q144" s="6">
         <v>10</v>
       </c>
-      <c r="R144" s="8" t="s">
+      <c r="R144" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S144" s="6" t="s">
@@ -13095,7 +13095,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="J145" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K145" s="6" t="s">
@@ -13119,7 +13119,7 @@
       <c r="Q145" s="6">
         <v>30</v>
       </c>
-      <c r="R145" s="8" t="s">
+      <c r="R145" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S145" s="6" t="s">
@@ -13170,7 +13170,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J146" s="8" t="s">
+      <c r="J146" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K146" s="6" t="s">
@@ -13194,7 +13194,7 @@
       <c r="Q146" s="6">
         <v>30</v>
       </c>
-      <c r="R146" s="8" t="s">
+      <c r="R146" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S146" s="6" t="s">
@@ -13245,7 +13245,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J147" s="8" t="s">
+      <c r="J147" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K147" s="6" t="s">
@@ -13269,7 +13269,7 @@
       <c r="Q147" s="6">
         <v>20</v>
       </c>
-      <c r="R147" s="8" t="s">
+      <c r="R147" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S147" s="6" t="s">
@@ -13320,7 +13320,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J148" s="8" t="s">
+      <c r="J148" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K148" s="6" t="s">
@@ -13344,7 +13344,7 @@
       <c r="Q148" s="6">
         <v>20</v>
       </c>
-      <c r="R148" s="8" t="s">
+      <c r="R148" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S148" s="6" t="s">
@@ -13395,7 +13395,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J149" s="8" t="s">
+      <c r="J149" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K149" s="6" t="s">
@@ -13419,7 +13419,7 @@
       <c r="Q149" s="6">
         <v>20</v>
       </c>
-      <c r="R149" s="8" t="s">
+      <c r="R149" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S149" s="6" t="s">
@@ -13470,7 +13470,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J150" s="8" t="s">
+      <c r="J150" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K150" s="6" t="s">
@@ -13494,7 +13494,7 @@
       <c r="Q150" s="6">
         <v>20</v>
       </c>
-      <c r="R150" s="8" t="s">
+      <c r="R150" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S150" s="6" t="s">
@@ -13545,7 +13545,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J151" s="8" t="s">
+      <c r="J151" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K151" s="6" t="s">
@@ -13569,7 +13569,7 @@
       <c r="Q151" s="6">
         <v>30</v>
       </c>
-      <c r="R151" s="8" t="s">
+      <c r="R151" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S151" s="6" t="s">
@@ -13620,7 +13620,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J152" s="8" t="s">
+      <c r="J152" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K152" s="6" t="s">
@@ -13644,7 +13644,7 @@
       <c r="Q152" s="6">
         <v>20</v>
       </c>
-      <c r="R152" s="8" t="s">
+      <c r="R152" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S152" s="6" t="s">
@@ -13695,7 +13695,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J153" s="8" t="s">
+      <c r="J153" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K153" s="6" t="s">
@@ -13719,7 +13719,7 @@
       <c r="Q153" s="6">
         <v>10</v>
       </c>
-      <c r="R153" s="8" t="s">
+      <c r="R153" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S153" s="6" t="s">
@@ -13770,7 +13770,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J154" s="8" t="s">
+      <c r="J154" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K154" s="6" t="s">
@@ -13794,7 +13794,7 @@
       <c r="Q154" s="6">
         <v>20</v>
       </c>
-      <c r="R154" s="8" t="s">
+      <c r="R154" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S154" s="6" t="s">
@@ -13845,7 +13845,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J155" s="8" t="s">
+      <c r="J155" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K155" s="6" t="s">
@@ -13869,7 +13869,7 @@
       <c r="Q155" s="6">
         <v>10</v>
       </c>
-      <c r="R155" s="8" t="s">
+      <c r="R155" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S155" s="6" t="s">
@@ -13920,7 +13920,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J156" s="8" t="s">
+      <c r="J156" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K156" s="6" t="s">
@@ -13944,7 +13944,7 @@
       <c r="Q156" s="6">
         <v>30</v>
       </c>
-      <c r="R156" s="8" t="s">
+      <c r="R156" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S156" s="6" t="s">
@@ -13995,7 +13995,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J157" s="8" t="s">
+      <c r="J157" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K157" s="6" t="s">
@@ -14019,7 +14019,7 @@
       <c r="Q157" s="6">
         <v>10</v>
       </c>
-      <c r="R157" s="8" t="s">
+      <c r="R157" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S157" s="6" t="s">
@@ -14070,7 +14070,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J158" s="8" t="s">
+      <c r="J158" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K158" s="6" t="s">
@@ -14094,7 +14094,7 @@
       <c r="Q158" s="6">
         <v>30</v>
       </c>
-      <c r="R158" s="8" t="s">
+      <c r="R158" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S158" s="6" t="s">
@@ -14145,7 +14145,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J159" s="8" t="s">
+      <c r="J159" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K159" s="6" t="s">
@@ -14169,7 +14169,7 @@
       <c r="Q159" s="6">
         <v>30</v>
       </c>
-      <c r="R159" s="8" t="s">
+      <c r="R159" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S159" s="6" t="s">
@@ -14220,7 +14220,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J160" s="8" t="s">
+      <c r="J160" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K160" s="6" t="s">
@@ -14244,7 +14244,7 @@
       <c r="Q160" s="6">
         <v>10</v>
       </c>
-      <c r="R160" s="8" t="s">
+      <c r="R160" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S160" s="6" t="s">
@@ -14295,7 +14295,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J161" s="8" t="s">
+      <c r="J161" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K161" s="6" t="s">
@@ -14319,7 +14319,7 @@
       <c r="Q161" s="6">
         <v>20</v>
       </c>
-      <c r="R161" s="8" t="s">
+      <c r="R161" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S161" s="6" t="s">
@@ -14370,7 +14370,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J162" s="8" t="s">
+      <c r="J162" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K162" s="6" t="s">
@@ -14394,7 +14394,7 @@
       <c r="Q162" s="6">
         <v>10</v>
       </c>
-      <c r="R162" s="8" t="s">
+      <c r="R162" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S162" s="6" t="s">
@@ -14445,7 +14445,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J163" s="8" t="s">
+      <c r="J163" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K163" s="6" t="s">
@@ -14469,7 +14469,7 @@
       <c r="Q163" s="6">
         <v>20</v>
       </c>
-      <c r="R163" s="8" t="s">
+      <c r="R163" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S163" s="6" t="s">
@@ -14520,7 +14520,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J164" s="8" t="s">
+      <c r="J164" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K164" s="6" t="s">
@@ -14544,7 +14544,7 @@
       <c r="Q164" s="6">
         <v>20</v>
       </c>
-      <c r="R164" s="8" t="s">
+      <c r="R164" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S164" s="6" t="s">
@@ -14595,7 +14595,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J165" s="8" t="s">
+      <c r="J165" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K165" s="6" t="s">
@@ -14619,7 +14619,7 @@
       <c r="Q165" s="6">
         <v>20</v>
       </c>
-      <c r="R165" s="8" t="s">
+      <c r="R165" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S165" s="6" t="s">
@@ -14670,7 +14670,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J166" s="8" t="s">
+      <c r="J166" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K166" s="6" t="s">
@@ -14694,7 +14694,7 @@
       <c r="Q166" s="6">
         <v>20</v>
       </c>
-      <c r="R166" s="8" t="s">
+      <c r="R166" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S166" s="6" t="s">
@@ -14745,7 +14745,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J167" s="8" t="s">
+      <c r="J167" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K167" s="6" t="s">
@@ -14769,7 +14769,7 @@
       <c r="Q167" s="6">
         <v>30</v>
       </c>
-      <c r="R167" s="8" t="s">
+      <c r="R167" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S167" s="6" t="s">
@@ -14820,7 +14820,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J168" s="8" t="s">
+      <c r="J168" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K168" s="6" t="s">
@@ -14844,7 +14844,7 @@
       <c r="Q168" s="6">
         <v>20</v>
       </c>
-      <c r="R168" s="8" t="s">
+      <c r="R168" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S168" s="6" t="s">
@@ -14895,7 +14895,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J169" s="8" t="s">
+      <c r="J169" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K169" s="6" t="s">
@@ -14919,7 +14919,7 @@
       <c r="Q169" s="6">
         <v>10</v>
       </c>
-      <c r="R169" s="8" t="s">
+      <c r="R169" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S169" s="6" t="s">
@@ -14970,7 +14970,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J170" s="8" t="s">
+      <c r="J170" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K170" s="6" t="s">
@@ -14994,7 +14994,7 @@
       <c r="Q170" s="6">
         <v>20</v>
       </c>
-      <c r="R170" s="8" t="s">
+      <c r="R170" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S170" s="6" t="s">
@@ -15045,7 +15045,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J171" s="8" t="s">
+      <c r="J171" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K171" s="6" t="s">
@@ -15069,7 +15069,7 @@
       <c r="Q171" s="6">
         <v>10</v>
       </c>
-      <c r="R171" s="8" t="s">
+      <c r="R171" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S171" s="6" t="s">
@@ -15120,7 +15120,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J172" s="8" t="s">
+      <c r="J172" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K172" s="6" t="s">
@@ -15144,7 +15144,7 @@
       <c r="Q172" s="6">
         <v>30</v>
       </c>
-      <c r="R172" s="8" t="s">
+      <c r="R172" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S172" s="6" t="s">
@@ -15195,7 +15195,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J173" s="8" t="s">
+      <c r="J173" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K173" s="6" t="s">
@@ -15219,7 +15219,7 @@
       <c r="Q173" s="6">
         <v>10</v>
       </c>
-      <c r="R173" s="8" t="s">
+      <c r="R173" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S173" s="6" t="s">
@@ -15270,7 +15270,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J174" s="8" t="s">
+      <c r="J174" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K174" s="6" t="s">
@@ -15294,7 +15294,7 @@
       <c r="Q174" s="6">
         <v>30</v>
       </c>
-      <c r="R174" s="8" t="s">
+      <c r="R174" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S174" s="6" t="s">
@@ -15345,7 +15345,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J175" s="8" t="s">
+      <c r="J175" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K175" s="6" t="s">
@@ -15369,7 +15369,7 @@
       <c r="Q175" s="6">
         <v>30</v>
       </c>
-      <c r="R175" s="8" t="s">
+      <c r="R175" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S175" s="6" t="s">
@@ -15420,7 +15420,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J176" s="8" t="s">
+      <c r="J176" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K176" s="6" t="s">
@@ -15444,7 +15444,7 @@
       <c r="Q176" s="6">
         <v>10</v>
       </c>
-      <c r="R176" s="8" t="s">
+      <c r="R176" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S176" s="6" t="s">
@@ -15495,7 +15495,7 @@
         <f t="shared" ref="I177:I240" si="3">F177-23</f>
         <v>11</v>
       </c>
-      <c r="J177" s="8" t="s">
+      <c r="J177" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K177" s="6" t="s">
@@ -15519,7 +15519,7 @@
       <c r="Q177" s="6">
         <v>20</v>
       </c>
-      <c r="R177" s="8" t="s">
+      <c r="R177" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S177" s="6" t="s">
@@ -15570,7 +15570,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J178" s="8" t="s">
+      <c r="J178" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K178" s="6" t="s">
@@ -15594,7 +15594,7 @@
       <c r="Q178" s="6">
         <v>10</v>
       </c>
-      <c r="R178" s="8" t="s">
+      <c r="R178" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S178" s="6" t="s">
@@ -15645,7 +15645,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J179" s="8" t="s">
+      <c r="J179" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K179" s="6" t="s">
@@ -15669,7 +15669,7 @@
       <c r="Q179" s="6">
         <v>20</v>
       </c>
-      <c r="R179" s="8" t="s">
+      <c r="R179" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S179" s="6" t="s">
@@ -15720,7 +15720,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J180" s="8" t="s">
+      <c r="J180" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K180" s="6" t="s">
@@ -15744,7 +15744,7 @@
       <c r="Q180" s="6">
         <v>20</v>
       </c>
-      <c r="R180" s="8" t="s">
+      <c r="R180" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S180" s="6" t="s">
@@ -15795,7 +15795,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J181" s="8" t="s">
+      <c r="J181" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K181" s="6" t="s">
@@ -15819,7 +15819,7 @@
       <c r="Q181" s="6">
         <v>20</v>
       </c>
-      <c r="R181" s="8" t="s">
+      <c r="R181" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S181" s="6" t="s">
@@ -15870,7 +15870,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J182" s="8" t="s">
+      <c r="J182" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K182" s="6" t="s">
@@ -15894,7 +15894,7 @@
       <c r="Q182" s="6">
         <v>20</v>
       </c>
-      <c r="R182" s="8" t="s">
+      <c r="R182" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S182" s="6" t="s">
@@ -15945,7 +15945,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J183" s="8" t="s">
+      <c r="J183" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K183" s="6" t="s">
@@ -15969,7 +15969,7 @@
       <c r="Q183" s="6">
         <v>30</v>
       </c>
-      <c r="R183" s="8" t="s">
+      <c r="R183" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S183" s="6" t="s">
@@ -16020,7 +16020,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J184" s="8" t="s">
+      <c r="J184" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K184" s="6" t="s">
@@ -16044,7 +16044,7 @@
       <c r="Q184" s="6">
         <v>20</v>
       </c>
-      <c r="R184" s="8" t="s">
+      <c r="R184" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S184" s="6" t="s">
@@ -16095,7 +16095,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J185" s="8" t="s">
+      <c r="J185" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K185" s="6" t="s">
@@ -16119,7 +16119,7 @@
       <c r="Q185" s="6">
         <v>10</v>
       </c>
-      <c r="R185" s="8" t="s">
+      <c r="R185" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S185" s="6" t="s">
@@ -16170,7 +16170,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J186" s="8" t="s">
+      <c r="J186" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K186" s="6" t="s">
@@ -16194,7 +16194,7 @@
       <c r="Q186" s="6">
         <v>20</v>
       </c>
-      <c r="R186" s="8" t="s">
+      <c r="R186" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S186" s="6" t="s">
@@ -16245,7 +16245,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J187" s="8" t="s">
+      <c r="J187" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K187" s="6" t="s">
@@ -16269,7 +16269,7 @@
       <c r="Q187" s="6">
         <v>10</v>
       </c>
-      <c r="R187" s="8" t="s">
+      <c r="R187" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S187" s="6" t="s">
@@ -16320,7 +16320,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J188" s="8" t="s">
+      <c r="J188" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K188" s="6" t="s">
@@ -16344,7 +16344,7 @@
       <c r="Q188" s="6">
         <v>30</v>
       </c>
-      <c r="R188" s="8" t="s">
+      <c r="R188" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S188" s="6" t="s">
@@ -16395,7 +16395,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J189" s="8" t="s">
+      <c r="J189" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K189" s="6" t="s">
@@ -16419,7 +16419,7 @@
       <c r="Q189" s="6">
         <v>10</v>
       </c>
-      <c r="R189" s="8" t="s">
+      <c r="R189" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S189" s="6" t="s">
@@ -16470,7 +16470,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J190" s="8" t="s">
+      <c r="J190" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K190" s="6" t="s">
@@ -16494,7 +16494,7 @@
       <c r="Q190" s="6">
         <v>30</v>
       </c>
-      <c r="R190" s="8" t="s">
+      <c r="R190" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S190" s="6" t="s">
@@ -16545,7 +16545,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J191" s="8" t="s">
+      <c r="J191" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K191" s="6" t="s">
@@ -16569,7 +16569,7 @@
       <c r="Q191" s="6">
         <v>30</v>
       </c>
-      <c r="R191" s="8" t="s">
+      <c r="R191" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S191" s="6" t="s">
@@ -16620,7 +16620,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J192" s="8" t="s">
+      <c r="J192" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K192" s="6" t="s">
@@ -16644,7 +16644,7 @@
       <c r="Q192" s="6">
         <v>10</v>
       </c>
-      <c r="R192" s="8" t="s">
+      <c r="R192" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S192" s="6" t="s">
@@ -16695,7 +16695,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J193" s="8" t="s">
+      <c r="J193" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K193" s="6" t="s">
@@ -16719,7 +16719,7 @@
       <c r="Q193" s="6">
         <v>20</v>
       </c>
-      <c r="R193" s="8" t="s">
+      <c r="R193" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S193" s="6" t="s">
@@ -16770,7 +16770,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J194" s="8" t="s">
+      <c r="J194" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K194" s="6" t="s">
@@ -16794,7 +16794,7 @@
       <c r="Q194" s="6">
         <v>20</v>
       </c>
-      <c r="R194" s="8" t="s">
+      <c r="R194" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S194" s="6" t="s">
@@ -16845,7 +16845,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J195" s="8" t="s">
+      <c r="J195" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K195" s="6" t="s">
@@ -16869,7 +16869,7 @@
       <c r="Q195" s="6">
         <v>20</v>
       </c>
-      <c r="R195" s="8" t="s">
+      <c r="R195" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S195" s="6" t="s">
@@ -16920,7 +16920,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J196" s="8" t="s">
+      <c r="J196" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K196" s="6" t="s">
@@ -16944,7 +16944,7 @@
       <c r="Q196" s="6">
         <v>20</v>
       </c>
-      <c r="R196" s="8" t="s">
+      <c r="R196" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S196" s="6" t="s">
@@ -16995,7 +16995,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J197" s="8" t="s">
+      <c r="J197" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K197" s="6" t="s">
@@ -17019,7 +17019,7 @@
       <c r="Q197" s="6">
         <v>20</v>
       </c>
-      <c r="R197" s="8" t="s">
+      <c r="R197" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S197" s="6" t="s">
@@ -17070,7 +17070,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J198" s="8" t="s">
+      <c r="J198" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K198" s="6" t="s">
@@ -17094,7 +17094,7 @@
       <c r="Q198" s="6">
         <v>30</v>
       </c>
-      <c r="R198" s="8" t="s">
+      <c r="R198" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S198" s="6" t="s">
@@ -17145,7 +17145,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J199" s="8" t="s">
+      <c r="J199" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K199" s="6" t="s">
@@ -17169,7 +17169,7 @@
       <c r="Q199" s="6">
         <v>20</v>
       </c>
-      <c r="R199" s="8" t="s">
+      <c r="R199" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S199" s="6" t="s">
@@ -17220,7 +17220,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J200" s="8" t="s">
+      <c r="J200" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K200" s="6" t="s">
@@ -17244,7 +17244,7 @@
       <c r="Q200" s="6">
         <v>10</v>
       </c>
-      <c r="R200" s="8" t="s">
+      <c r="R200" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S200" s="6" t="s">
@@ -17295,7 +17295,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J201" s="8" t="s">
+      <c r="J201" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K201" s="6" t="s">
@@ -17319,7 +17319,7 @@
       <c r="Q201" s="6">
         <v>20</v>
       </c>
-      <c r="R201" s="8" t="s">
+      <c r="R201" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S201" s="6" t="s">
@@ -17370,7 +17370,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J202" s="8" t="s">
+      <c r="J202" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K202" s="6" t="s">
@@ -17394,7 +17394,7 @@
       <c r="Q202" s="6">
         <v>10</v>
       </c>
-      <c r="R202" s="8" t="s">
+      <c r="R202" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S202" s="6" t="s">
@@ -17445,7 +17445,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J203" s="8" t="s">
+      <c r="J203" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K203" s="6" t="s">
@@ -17469,7 +17469,7 @@
       <c r="Q203" s="6">
         <v>30</v>
       </c>
-      <c r="R203" s="8" t="s">
+      <c r="R203" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S203" s="6" t="s">
@@ -17520,7 +17520,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J204" s="8" t="s">
+      <c r="J204" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K204" s="6" t="s">
@@ -17544,7 +17544,7 @@
       <c r="Q204" s="6">
         <v>10</v>
       </c>
-      <c r="R204" s="8" t="s">
+      <c r="R204" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S204" s="6" t="s">
@@ -17595,7 +17595,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J205" s="8" t="s">
+      <c r="J205" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K205" s="6" t="s">
@@ -17619,7 +17619,7 @@
       <c r="Q205" s="6">
         <v>30</v>
       </c>
-      <c r="R205" s="8" t="s">
+      <c r="R205" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S205" s="6" t="s">
@@ -17670,7 +17670,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J206" s="8" t="s">
+      <c r="J206" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K206" s="6" t="s">
@@ -17694,7 +17694,7 @@
       <c r="Q206" s="6">
         <v>30</v>
       </c>
-      <c r="R206" s="8" t="s">
+      <c r="R206" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S206" s="6" t="s">
@@ -17745,7 +17745,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J207" s="8" t="s">
+      <c r="J207" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K207" s="6" t="s">
@@ -17769,7 +17769,7 @@
       <c r="Q207" s="6">
         <v>10</v>
       </c>
-      <c r="R207" s="8" t="s">
+      <c r="R207" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S207" s="6" t="s">
@@ -17820,7 +17820,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J208" s="8" t="s">
+      <c r="J208" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K208" s="6" t="s">
@@ -17844,7 +17844,7 @@
       <c r="Q208" s="6">
         <v>20</v>
       </c>
-      <c r="R208" s="8" t="s">
+      <c r="R208" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S208" s="6" t="s">
@@ -17895,7 +17895,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J209" s="8" t="s">
+      <c r="J209" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K209" s="6" t="s">
@@ -17919,7 +17919,7 @@
       <c r="Q209" s="6">
         <v>10</v>
       </c>
-      <c r="R209" s="8" t="s">
+      <c r="R209" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S209" s="6" t="s">
@@ -17970,7 +17970,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J210" s="8" t="s">
+      <c r="J210" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K210" s="6" t="s">
@@ -17994,7 +17994,7 @@
       <c r="Q210" s="6">
         <v>30</v>
       </c>
-      <c r="R210" s="8" t="s">
+      <c r="R210" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S210" s="6" t="s">
@@ -18045,7 +18045,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J211" s="8" t="s">
+      <c r="J211" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K211" s="6" t="s">
@@ -18069,7 +18069,7 @@
       <c r="Q211" s="6">
         <v>30</v>
       </c>
-      <c r="R211" s="8" t="s">
+      <c r="R211" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S211" s="6" t="s">
@@ -18120,7 +18120,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J212" s="8" t="s">
+      <c r="J212" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K212" s="6" t="s">
@@ -18144,7 +18144,7 @@
       <c r="Q212" s="6">
         <v>20</v>
       </c>
-      <c r="R212" s="8" t="s">
+      <c r="R212" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S212" s="6" t="s">
@@ -18195,7 +18195,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J213" s="8" t="s">
+      <c r="J213" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K213" s="6" t="s">
@@ -18219,7 +18219,7 @@
       <c r="Q213" s="6">
         <v>20</v>
       </c>
-      <c r="R213" s="8" t="s">
+      <c r="R213" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S213" s="6" t="s">
@@ -18246,9 +18246,7 @@
       </c>
     </row>
     <row r="214" customFormat="1" ht="18.75" customHeight="1" spans="1:26">
-      <c r="A214" s="6">
-        <v>900</v>
-      </c>
+      <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6" t="s">
         <v>214</v>
@@ -18272,7 +18270,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J214" s="8" t="s">
+      <c r="J214" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K214" s="6" t="s">
@@ -18296,7 +18294,7 @@
       <c r="Q214" s="6">
         <v>20</v>
       </c>
-      <c r="R214" s="8" t="s">
+      <c r="R214" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S214" s="6" t="s">
@@ -18347,7 +18345,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J215" s="8" t="s">
+      <c r="J215" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K215" s="6" t="s">
@@ -18371,7 +18369,7 @@
       <c r="Q215" s="6">
         <v>20</v>
       </c>
-      <c r="R215" s="8" t="s">
+      <c r="R215" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S215" s="6" t="s">
@@ -18422,7 +18420,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J216" s="8" t="s">
+      <c r="J216" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K216" s="6" t="s">
@@ -18446,7 +18444,7 @@
       <c r="Q216" s="6">
         <v>30</v>
       </c>
-      <c r="R216" s="8" t="s">
+      <c r="R216" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S216" s="6" t="s">
@@ -18497,7 +18495,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J217" s="8" t="s">
+      <c r="J217" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K217" s="6" t="s">
@@ -18521,7 +18519,7 @@
       <c r="Q217" s="6">
         <v>20</v>
       </c>
-      <c r="R217" s="8" t="s">
+      <c r="R217" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S217" s="6" t="s">
@@ -18572,7 +18570,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J218" s="8" t="s">
+      <c r="J218" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K218" s="6" t="s">
@@ -18596,7 +18594,7 @@
       <c r="Q218" s="6">
         <v>10</v>
       </c>
-      <c r="R218" s="8" t="s">
+      <c r="R218" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S218" s="6" t="s">
@@ -18647,7 +18645,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J219" s="8" t="s">
+      <c r="J219" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K219" s="6" t="s">
@@ -18671,7 +18669,7 @@
       <c r="Q219" s="6">
         <v>20</v>
       </c>
-      <c r="R219" s="8" t="s">
+      <c r="R219" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S219" s="6" t="s">
@@ -18722,7 +18720,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J220" s="8" t="s">
+      <c r="J220" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K220" s="6" t="s">
@@ -18746,7 +18744,7 @@
       <c r="Q220" s="6">
         <v>10</v>
       </c>
-      <c r="R220" s="8" t="s">
+      <c r="R220" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S220" s="6" t="s">
@@ -18797,7 +18795,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J221" s="8" t="s">
+      <c r="J221" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K221" s="6" t="s">
@@ -18821,7 +18819,7 @@
       <c r="Q221" s="6">
         <v>30</v>
       </c>
-      <c r="R221" s="8" t="s">
+      <c r="R221" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S221" s="6" t="s">
@@ -18872,7 +18870,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J222" s="8" t="s">
+      <c r="J222" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K222" s="6" t="s">
@@ -18896,7 +18894,7 @@
       <c r="Q222" s="6">
         <v>10</v>
       </c>
-      <c r="R222" s="8" t="s">
+      <c r="R222" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S222" s="6" t="s">
@@ -18947,7 +18945,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J223" s="8" t="s">
+      <c r="J223" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K223" s="6" t="s">
@@ -18971,7 +18969,7 @@
       <c r="Q223" s="6">
         <v>30</v>
       </c>
-      <c r="R223" s="8" t="s">
+      <c r="R223" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S223" s="6" t="s">
@@ -19022,7 +19020,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J224" s="8" t="s">
+      <c r="J224" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K224" s="6" t="s">
@@ -19046,7 +19044,7 @@
       <c r="Q224" s="6">
         <v>30</v>
       </c>
-      <c r="R224" s="8" t="s">
+      <c r="R224" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S224" s="6" t="s">
@@ -19097,7 +19095,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J225" s="8" t="s">
+      <c r="J225" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K225" s="6" t="s">
@@ -19121,7 +19119,7 @@
       <c r="Q225" s="6">
         <v>10</v>
       </c>
-      <c r="R225" s="8" t="s">
+      <c r="R225" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S225" s="6" t="s">
@@ -19172,7 +19170,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J226" s="8" t="s">
+      <c r="J226" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K226" s="6" t="s">
@@ -19196,7 +19194,7 @@
       <c r="Q226" s="6">
         <v>20</v>
       </c>
-      <c r="R226" s="8" t="s">
+      <c r="R226" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S226" s="6" t="s">
@@ -19247,7 +19245,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J227" s="8" t="s">
+      <c r="J227" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K227" s="6" t="s">
@@ -19271,7 +19269,7 @@
       <c r="Q227" s="6">
         <v>10</v>
       </c>
-      <c r="R227" s="8" t="s">
+      <c r="R227" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S227" s="6" t="s">
@@ -19322,7 +19320,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J228" s="8" t="s">
+      <c r="J228" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K228" s="6" t="s">
@@ -19346,7 +19344,7 @@
       <c r="Q228" s="6">
         <v>20</v>
       </c>
-      <c r="R228" s="8" t="s">
+      <c r="R228" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S228" s="6" t="s">
@@ -19397,7 +19395,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J229" s="8" t="s">
+      <c r="J229" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K229" s="6" t="s">
@@ -19421,7 +19419,7 @@
       <c r="Q229" s="6">
         <v>20</v>
       </c>
-      <c r="R229" s="8" t="s">
+      <c r="R229" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S229" s="6" t="s">
@@ -19472,7 +19470,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J230" s="8" t="s">
+      <c r="J230" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K230" s="6" t="s">
@@ -19496,7 +19494,7 @@
       <c r="Q230" s="6">
         <v>20</v>
       </c>
-      <c r="R230" s="8" t="s">
+      <c r="R230" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S230" s="6" t="s">
@@ -19547,7 +19545,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J231" s="8" t="s">
+      <c r="J231" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K231" s="6" t="s">
@@ -19571,7 +19569,7 @@
       <c r="Q231" s="6">
         <v>20</v>
       </c>
-      <c r="R231" s="8" t="s">
+      <c r="R231" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S231" s="6" t="s">
@@ -19622,7 +19620,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J232" s="8" t="s">
+      <c r="J232" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K232" s="6" t="s">
@@ -19646,7 +19644,7 @@
       <c r="Q232" s="6">
         <v>30</v>
       </c>
-      <c r="R232" s="8" t="s">
+      <c r="R232" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S232" s="6" t="s">
@@ -19697,7 +19695,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J233" s="8" t="s">
+      <c r="J233" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K233" s="6" t="s">
@@ -19721,7 +19719,7 @@
       <c r="Q233" s="6">
         <v>20</v>
       </c>
-      <c r="R233" s="8" t="s">
+      <c r="R233" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S233" s="6" t="s">
@@ -19772,7 +19770,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J234" s="8" t="s">
+      <c r="J234" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K234" s="6" t="s">
@@ -19796,7 +19794,7 @@
       <c r="Q234" s="6">
         <v>10</v>
       </c>
-      <c r="R234" s="8" t="s">
+      <c r="R234" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S234" s="6" t="s">
@@ -19847,7 +19845,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J235" s="8" t="s">
+      <c r="J235" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K235" s="6" t="s">
@@ -19871,7 +19869,7 @@
       <c r="Q235" s="6">
         <v>20</v>
       </c>
-      <c r="R235" s="8" t="s">
+      <c r="R235" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S235" s="6" t="s">
@@ -19922,7 +19920,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J236" s="8" t="s">
+      <c r="J236" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K236" s="6" t="s">
@@ -19946,7 +19944,7 @@
       <c r="Q236" s="6">
         <v>10</v>
       </c>
-      <c r="R236" s="8" t="s">
+      <c r="R236" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S236" s="6" t="s">
@@ -19997,7 +19995,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J237" s="8" t="s">
+      <c r="J237" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K237" s="6" t="s">
@@ -20021,7 +20019,7 @@
       <c r="Q237" s="6">
         <v>30</v>
       </c>
-      <c r="R237" s="8" t="s">
+      <c r="R237" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S237" s="6" t="s">
@@ -20072,7 +20070,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J238" s="8" t="s">
+      <c r="J238" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K238" s="6" t="s">
@@ -20096,7 +20094,7 @@
       <c r="Q238" s="6">
         <v>10</v>
       </c>
-      <c r="R238" s="8" t="s">
+      <c r="R238" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S238" s="6" t="s">
@@ -20147,7 +20145,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J239" s="8" t="s">
+      <c r="J239" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K239" s="6" t="s">
@@ -20171,7 +20169,7 @@
       <c r="Q239" s="6">
         <v>30</v>
       </c>
-      <c r="R239" s="8" t="s">
+      <c r="R239" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S239" s="6" t="s">
@@ -20222,7 +20220,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J240" s="8" t="s">
+      <c r="J240" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K240" s="6" t="s">
@@ -20246,7 +20244,7 @@
       <c r="Q240" s="6">
         <v>30</v>
       </c>
-      <c r="R240" s="8" t="s">
+      <c r="R240" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S240" s="6" t="s">
@@ -20297,7 +20295,7 @@
         <f t="shared" ref="I241:I304" si="4">F241-23</f>
         <v>10</v>
       </c>
-      <c r="J241" s="8" t="s">
+      <c r="J241" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K241" s="6" t="s">
@@ -20321,7 +20319,7 @@
       <c r="Q241" s="6">
         <v>10</v>
       </c>
-      <c r="R241" s="8" t="s">
+      <c r="R241" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S241" s="6" t="s">
@@ -20372,7 +20370,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J242" s="8" t="s">
+      <c r="J242" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K242" s="6" t="s">
@@ -20396,7 +20394,7 @@
       <c r="Q242" s="6">
         <v>20</v>
       </c>
-      <c r="R242" s="8" t="s">
+      <c r="R242" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S242" s="6" t="s">
@@ -20447,7 +20445,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J243" s="8" t="s">
+      <c r="J243" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K243" s="6" t="s">
@@ -20471,7 +20469,7 @@
       <c r="Q243" s="6">
         <v>10</v>
       </c>
-      <c r="R243" s="8" t="s">
+      <c r="R243" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S243" s="6" t="s">
@@ -20522,7 +20520,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J244" s="8" t="s">
+      <c r="J244" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K244" s="6" t="s">
@@ -20546,7 +20544,7 @@
       <c r="Q244" s="6">
         <v>30</v>
       </c>
-      <c r="R244" s="8" t="s">
+      <c r="R244" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S244" s="6" t="s">
@@ -20597,7 +20595,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J245" s="8" t="s">
+      <c r="J245" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K245" s="6" t="s">
@@ -20621,7 +20619,7 @@
       <c r="Q245" s="6">
         <v>30</v>
       </c>
-      <c r="R245" s="8" t="s">
+      <c r="R245" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S245" s="6" t="s">
@@ -20672,7 +20670,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J246" s="8" t="s">
+      <c r="J246" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K246" s="6" t="s">
@@ -20696,7 +20694,7 @@
       <c r="Q246" s="6">
         <v>20</v>
       </c>
-      <c r="R246" s="8" t="s">
+      <c r="R246" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S246" s="6" t="s">
@@ -20747,7 +20745,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J247" s="8" t="s">
+      <c r="J247" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K247" s="6" t="s">
@@ -20771,7 +20769,7 @@
       <c r="Q247" s="6">
         <v>20</v>
       </c>
-      <c r="R247" s="8" t="s">
+      <c r="R247" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S247" s="6" t="s">
@@ -20822,7 +20820,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J248" s="8" t="s">
+      <c r="J248" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K248" s="6" t="s">
@@ -20846,7 +20844,7 @@
       <c r="Q248" s="6">
         <v>20</v>
       </c>
-      <c r="R248" s="8" t="s">
+      <c r="R248" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S248" s="6" t="s">
@@ -20897,7 +20895,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J249" s="8" t="s">
+      <c r="J249" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K249" s="6" t="s">
@@ -20921,7 +20919,7 @@
       <c r="Q249" s="6">
         <v>20</v>
       </c>
-      <c r="R249" s="8" t="s">
+      <c r="R249" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S249" s="6" t="s">
@@ -20972,7 +20970,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J250" s="8" t="s">
+      <c r="J250" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K250" s="6" t="s">
@@ -20996,7 +20994,7 @@
       <c r="Q250" s="6">
         <v>30</v>
       </c>
-      <c r="R250" s="8" t="s">
+      <c r="R250" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S250" s="6" t="s">
@@ -21047,7 +21045,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J251" s="8" t="s">
+      <c r="J251" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K251" s="6" t="s">
@@ -21071,7 +21069,7 @@
       <c r="Q251" s="6">
         <v>20</v>
       </c>
-      <c r="R251" s="8" t="s">
+      <c r="R251" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S251" s="6" t="s">
@@ -21122,7 +21120,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J252" s="8" t="s">
+      <c r="J252" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K252" s="6" t="s">
@@ -21146,7 +21144,7 @@
       <c r="Q252" s="6">
         <v>10</v>
       </c>
-      <c r="R252" s="8" t="s">
+      <c r="R252" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S252" s="6" t="s">
@@ -21197,7 +21195,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J253" s="8" t="s">
+      <c r="J253" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K253" s="6" t="s">
@@ -21221,7 +21219,7 @@
       <c r="Q253" s="6">
         <v>20</v>
       </c>
-      <c r="R253" s="8" t="s">
+      <c r="R253" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S253" s="6" t="s">
@@ -21272,7 +21270,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J254" s="8" t="s">
+      <c r="J254" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K254" s="6" t="s">
@@ -21296,7 +21294,7 @@
       <c r="Q254" s="6">
         <v>10</v>
       </c>
-      <c r="R254" s="8" t="s">
+      <c r="R254" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S254" s="6" t="s">
@@ -21347,7 +21345,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="J255" s="8" t="s">
+      <c r="J255" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K255" s="6" t="s">
@@ -21371,7 +21369,7 @@
       <c r="Q255" s="6">
         <v>30</v>
       </c>
-      <c r="R255" s="8" t="s">
+      <c r="R255" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S255" s="6" t="s">
@@ -21422,7 +21420,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J256" s="8" t="s">
+      <c r="J256" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K256" s="6" t="s">
@@ -21446,7 +21444,7 @@
       <c r="Q256" s="6">
         <v>10</v>
       </c>
-      <c r="R256" s="8" t="s">
+      <c r="R256" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S256" s="6" t="s">
@@ -21497,7 +21495,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J257" s="8" t="s">
+      <c r="J257" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K257" s="6" t="s">
@@ -21521,7 +21519,7 @@
       <c r="Q257" s="6">
         <v>30</v>
       </c>
-      <c r="R257" s="8" t="s">
+      <c r="R257" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S257" s="6" t="s">
@@ -21572,7 +21570,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J258" s="8" t="s">
+      <c r="J258" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K258" s="6" t="s">
@@ -21596,7 +21594,7 @@
       <c r="Q258" s="6">
         <v>30</v>
       </c>
-      <c r="R258" s="8" t="s">
+      <c r="R258" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S258" s="6" t="s">
@@ -21647,7 +21645,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J259" s="8" t="s">
+      <c r="J259" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K259" s="6" t="s">
@@ -21671,7 +21669,7 @@
       <c r="Q259" s="6">
         <v>10</v>
       </c>
-      <c r="R259" s="8" t="s">
+      <c r="R259" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S259" s="6" t="s">
@@ -21722,7 +21720,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J260" s="8" t="s">
+      <c r="J260" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K260" s="6" t="s">
@@ -21746,7 +21744,7 @@
       <c r="Q260" s="6">
         <v>20</v>
       </c>
-      <c r="R260" s="8" t="s">
+      <c r="R260" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S260" s="6" t="s">
@@ -21797,7 +21795,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J261" s="8" t="s">
+      <c r="J261" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K261" s="6" t="s">
@@ -21821,7 +21819,7 @@
       <c r="Q261" s="6">
         <v>10</v>
       </c>
-      <c r="R261" s="8" t="s">
+      <c r="R261" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S261" s="6" t="s">
@@ -21872,7 +21870,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J262" s="8" t="s">
+      <c r="J262" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K262" s="6" t="s">
@@ -21896,7 +21894,7 @@
       <c r="Q262" s="6">
         <v>20</v>
       </c>
-      <c r="R262" s="8" t="s">
+      <c r="R262" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S262" s="6" t="s">
@@ -21947,7 +21945,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J263" s="8" t="s">
+      <c r="J263" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K263" s="6" t="s">
@@ -21971,7 +21969,7 @@
       <c r="Q263" s="6">
         <v>20</v>
       </c>
-      <c r="R263" s="8" t="s">
+      <c r="R263" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S263" s="6" t="s">
@@ -22022,7 +22020,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J264" s="8" t="s">
+      <c r="J264" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K264" s="6" t="s">
@@ -22046,7 +22044,7 @@
       <c r="Q264" s="6">
         <v>20</v>
       </c>
-      <c r="R264" s="8" t="s">
+      <c r="R264" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S264" s="6" t="s">
@@ -22097,7 +22095,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J265" s="8" t="s">
+      <c r="J265" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K265" s="6" t="s">
@@ -22121,7 +22119,7 @@
       <c r="Q265" s="6">
         <v>20</v>
       </c>
-      <c r="R265" s="8" t="s">
+      <c r="R265" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S265" s="6" t="s">
@@ -22172,7 +22170,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J266" s="8" t="s">
+      <c r="J266" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K266" s="6" t="s">
@@ -22196,7 +22194,7 @@
       <c r="Q266" s="6">
         <v>30</v>
       </c>
-      <c r="R266" s="8" t="s">
+      <c r="R266" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S266" s="6" t="s">
@@ -22247,7 +22245,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="J267" s="8" t="s">
+      <c r="J267" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K267" s="6" t="s">
@@ -22271,7 +22269,7 @@
       <c r="Q267" s="6">
         <v>20</v>
       </c>
-      <c r="R267" s="8" t="s">
+      <c r="R267" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S267" s="6" t="s">
@@ -22322,7 +22320,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J268" s="8" t="s">
+      <c r="J268" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K268" s="6" t="s">
@@ -22346,7 +22344,7 @@
       <c r="Q268" s="6">
         <v>10</v>
       </c>
-      <c r="R268" s="8" t="s">
+      <c r="R268" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S268" s="6" t="s">
@@ -22397,7 +22395,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J269" s="8" t="s">
+      <c r="J269" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K269" s="6" t="s">
@@ -22421,7 +22419,7 @@
       <c r="Q269" s="6">
         <v>20</v>
       </c>
-      <c r="R269" s="8" t="s">
+      <c r="R269" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S269" s="6" t="s">
@@ -22472,7 +22470,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J270" s="8" t="s">
+      <c r="J270" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K270" s="6" t="s">
@@ -22496,7 +22494,7 @@
       <c r="Q270" s="6">
         <v>10</v>
       </c>
-      <c r="R270" s="8" t="s">
+      <c r="R270" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S270" s="6" t="s">
@@ -22547,7 +22545,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J271" s="8" t="s">
+      <c r="J271" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K271" s="6" t="s">
@@ -22571,7 +22569,7 @@
       <c r="Q271" s="6">
         <v>30</v>
       </c>
-      <c r="R271" s="8" t="s">
+      <c r="R271" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S271" s="6" t="s">
@@ -22622,7 +22620,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J272" s="8" t="s">
+      <c r="J272" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K272" s="6" t="s">
@@ -22646,7 +22644,7 @@
       <c r="Q272" s="6">
         <v>10</v>
       </c>
-      <c r="R272" s="8" t="s">
+      <c r="R272" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S272" s="6" t="s">
@@ -22697,7 +22695,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J273" s="8" t="s">
+      <c r="J273" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K273" s="6" t="s">
@@ -22721,7 +22719,7 @@
       <c r="Q273" s="6">
         <v>30</v>
       </c>
-      <c r="R273" s="8" t="s">
+      <c r="R273" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S273" s="6" t="s">
@@ -22772,7 +22770,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J274" s="8" t="s">
+      <c r="J274" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K274" s="6" t="s">
@@ -22796,7 +22794,7 @@
       <c r="Q274" s="6">
         <v>30</v>
       </c>
-      <c r="R274" s="8" t="s">
+      <c r="R274" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S274" s="6" t="s">
@@ -22847,7 +22845,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J275" s="8" t="s">
+      <c r="J275" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K275" s="6" t="s">
@@ -22871,7 +22869,7 @@
       <c r="Q275" s="6">
         <v>10</v>
       </c>
-      <c r="R275" s="8" t="s">
+      <c r="R275" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S275" s="6" t="s">
@@ -22922,7 +22920,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J276" s="8" t="s">
+      <c r="J276" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K276" s="6" t="s">
@@ -22946,7 +22944,7 @@
       <c r="Q276" s="6">
         <v>20</v>
       </c>
-      <c r="R276" s="8" t="s">
+      <c r="R276" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S276" s="6" t="s">
@@ -22997,7 +22995,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J277" s="8" t="s">
+      <c r="J277" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K277" s="6" t="s">
@@ -23021,7 +23019,7 @@
       <c r="Q277" s="6">
         <v>10</v>
       </c>
-      <c r="R277" s="8" t="s">
+      <c r="R277" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S277" s="6" t="s">
@@ -23072,7 +23070,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J278" s="8" t="s">
+      <c r="J278" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K278" s="6" t="s">
@@ -23096,7 +23094,7 @@
       <c r="Q278" s="6">
         <v>30</v>
       </c>
-      <c r="R278" s="8" t="s">
+      <c r="R278" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S278" s="6" t="s">
@@ -23147,7 +23145,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J279" s="8" t="s">
+      <c r="J279" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K279" s="6" t="s">
@@ -23171,7 +23169,7 @@
       <c r="Q279" s="6">
         <v>30</v>
       </c>
-      <c r="R279" s="8" t="s">
+      <c r="R279" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S279" s="6" t="s">
@@ -23222,7 +23220,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J280" s="8" t="s">
+      <c r="J280" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K280" s="6" t="s">
@@ -23246,7 +23244,7 @@
       <c r="Q280" s="6">
         <v>20</v>
       </c>
-      <c r="R280" s="8" t="s">
+      <c r="R280" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S280" s="6" t="s">
@@ -23297,7 +23295,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J281" s="8" t="s">
+      <c r="J281" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K281" s="6" t="s">
@@ -23321,7 +23319,7 @@
       <c r="Q281" s="6">
         <v>20</v>
       </c>
-      <c r="R281" s="8" t="s">
+      <c r="R281" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S281" s="6" t="s">
@@ -23372,7 +23370,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J282" s="8" t="s">
+      <c r="J282" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K282" s="6" t="s">
@@ -23396,7 +23394,7 @@
       <c r="Q282" s="6">
         <v>20</v>
       </c>
-      <c r="R282" s="8" t="s">
+      <c r="R282" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S282" s="6" t="s">
@@ -23447,7 +23445,7 @@
         <f t="shared" ref="I283:I330" si="5">F283-23</f>
         <v>9</v>
       </c>
-      <c r="J283" s="8" t="s">
+      <c r="J283" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K283" s="6" t="s">
@@ -23471,7 +23469,7 @@
       <c r="Q283" s="6">
         <v>10</v>
       </c>
-      <c r="R283" s="8" t="s">
+      <c r="R283" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S283" s="6" t="s">
@@ -23522,7 +23520,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J284" s="8" t="s">
+      <c r="J284" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K284" s="6" t="s">
@@ -23546,7 +23544,7 @@
       <c r="Q284" s="6">
         <v>30</v>
       </c>
-      <c r="R284" s="8" t="s">
+      <c r="R284" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S284" s="6" t="s">
@@ -23597,7 +23595,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J285" s="8" t="s">
+      <c r="J285" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K285" s="6" t="s">
@@ -23621,7 +23619,7 @@
       <c r="Q285" s="6">
         <v>10</v>
       </c>
-      <c r="R285" s="8" t="s">
+      <c r="R285" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S285" s="6" t="s">
@@ -23672,7 +23670,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J286" s="8" t="s">
+      <c r="J286" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K286" s="6" t="s">
@@ -23696,7 +23694,7 @@
       <c r="Q286" s="6">
         <v>30</v>
       </c>
-      <c r="R286" s="8" t="s">
+      <c r="R286" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S286" s="6" t="s">
@@ -23747,7 +23745,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J287" s="8" t="s">
+      <c r="J287" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K287" s="6" t="s">
@@ -23771,7 +23769,7 @@
       <c r="Q287" s="6">
         <v>30</v>
       </c>
-      <c r="R287" s="8" t="s">
+      <c r="R287" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S287" s="6" t="s">
@@ -23822,7 +23820,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J288" s="8" t="s">
+      <c r="J288" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K288" s="6" t="s">
@@ -23846,7 +23844,7 @@
       <c r="Q288" s="6">
         <v>10</v>
       </c>
-      <c r="R288" s="8" t="s">
+      <c r="R288" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S288" s="6" t="s">
@@ -23897,7 +23895,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J289" s="8" t="s">
+      <c r="J289" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K289" s="6" t="s">
@@ -23921,7 +23919,7 @@
       <c r="Q289" s="6">
         <v>20</v>
       </c>
-      <c r="R289" s="8" t="s">
+      <c r="R289" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S289" s="6" t="s">
@@ -23972,7 +23970,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J290" s="8" t="s">
+      <c r="J290" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K290" s="6" t="s">
@@ -23996,7 +23994,7 @@
       <c r="Q290" s="6">
         <v>10</v>
       </c>
-      <c r="R290" s="8" t="s">
+      <c r="R290" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S290" s="6" t="s">
@@ -24047,7 +24045,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J291" s="8" t="s">
+      <c r="J291" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K291" s="6" t="s">
@@ -24071,7 +24069,7 @@
       <c r="Q291" s="6">
         <v>30</v>
       </c>
-      <c r="R291" s="8" t="s">
+      <c r="R291" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S291" s="6" t="s">
@@ -24122,7 +24120,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J292" s="8" t="s">
+      <c r="J292" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K292" s="6" t="s">
@@ -24146,7 +24144,7 @@
       <c r="Q292" s="6">
         <v>30</v>
       </c>
-      <c r="R292" s="8" t="s">
+      <c r="R292" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S292" s="6" t="s">
@@ -24197,7 +24195,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J293" s="8" t="s">
+      <c r="J293" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K293" s="6" t="s">
@@ -24221,7 +24219,7 @@
       <c r="Q293" s="6">
         <v>20</v>
       </c>
-      <c r="R293" s="8" t="s">
+      <c r="R293" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S293" s="6" t="s">
@@ -24272,7 +24270,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J294" s="8" t="s">
+      <c r="J294" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K294" s="6" t="s">
@@ -24296,7 +24294,7 @@
       <c r="Q294" s="6">
         <v>20</v>
       </c>
-      <c r="R294" s="8" t="s">
+      <c r="R294" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S294" s="6" t="s">
@@ -24347,7 +24345,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J295" s="8" t="s">
+      <c r="J295" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K295" s="6" t="s">
@@ -24371,7 +24369,7 @@
       <c r="Q295" s="6">
         <v>20</v>
       </c>
-      <c r="R295" s="8" t="s">
+      <c r="R295" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S295" s="6" t="s">
@@ -24422,7 +24420,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J296" s="8" t="s">
+      <c r="J296" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K296" s="6" t="s">
@@ -24446,7 +24444,7 @@
       <c r="Q296" s="6">
         <v>20</v>
       </c>
-      <c r="R296" s="8" t="s">
+      <c r="R296" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S296" s="6" t="s">
@@ -24497,7 +24495,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J297" s="8" t="s">
+      <c r="J297" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K297" s="6" t="s">
@@ -24521,7 +24519,7 @@
       <c r="Q297" s="6">
         <v>30</v>
       </c>
-      <c r="R297" s="8" t="s">
+      <c r="R297" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S297" s="6" t="s">
@@ -24572,7 +24570,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J298" s="8" t="s">
+      <c r="J298" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K298" s="6" t="s">
@@ -24596,7 +24594,7 @@
       <c r="Q298" s="6">
         <v>20</v>
       </c>
-      <c r="R298" s="8" t="s">
+      <c r="R298" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S298" s="6" t="s">
@@ -24647,7 +24645,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J299" s="8" t="s">
+      <c r="J299" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K299" s="6" t="s">
@@ -24671,7 +24669,7 @@
       <c r="Q299" s="6">
         <v>10</v>
       </c>
-      <c r="R299" s="8" t="s">
+      <c r="R299" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S299" s="6" t="s">
@@ -24722,7 +24720,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J300" s="8" t="s">
+      <c r="J300" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K300" s="6" t="s">
@@ -24746,7 +24744,7 @@
       <c r="Q300" s="6">
         <v>20</v>
       </c>
-      <c r="R300" s="8" t="s">
+      <c r="R300" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S300" s="6" t="s">
@@ -24797,7 +24795,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J301" s="8" t="s">
+      <c r="J301" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K301" s="6" t="s">
@@ -24821,7 +24819,7 @@
       <c r="Q301" s="6">
         <v>10</v>
       </c>
-      <c r="R301" s="8" t="s">
+      <c r="R301" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S301" s="6" t="s">
@@ -24872,7 +24870,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J302" s="8" t="s">
+      <c r="J302" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K302" s="6" t="s">
@@ -24896,7 +24894,7 @@
       <c r="Q302" s="6">
         <v>30</v>
       </c>
-      <c r="R302" s="8" t="s">
+      <c r="R302" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S302" s="6" t="s">
@@ -24947,7 +24945,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J303" s="8" t="s">
+      <c r="J303" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K303" s="6" t="s">
@@ -24971,7 +24969,7 @@
       <c r="Q303" s="6">
         <v>10</v>
       </c>
-      <c r="R303" s="8" t="s">
+      <c r="R303" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S303" s="6" t="s">
@@ -25022,7 +25020,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J304" s="8" t="s">
+      <c r="J304" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K304" s="6" t="s">
@@ -25046,7 +25044,7 @@
       <c r="Q304" s="6">
         <v>30</v>
       </c>
-      <c r="R304" s="8" t="s">
+      <c r="R304" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S304" s="6" t="s">
@@ -25097,7 +25095,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J305" s="8" t="s">
+      <c r="J305" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K305" s="6" t="s">
@@ -25121,7 +25119,7 @@
       <c r="Q305" s="6">
         <v>30</v>
       </c>
-      <c r="R305" s="8" t="s">
+      <c r="R305" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S305" s="6" t="s">
@@ -25172,7 +25170,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J306" s="8" t="s">
+      <c r="J306" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K306" s="6" t="s">
@@ -25196,7 +25194,7 @@
       <c r="Q306" s="6">
         <v>10</v>
       </c>
-      <c r="R306" s="8" t="s">
+      <c r="R306" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S306" s="6" t="s">
@@ -25247,7 +25245,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J307" s="8" t="s">
+      <c r="J307" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K307" s="6" t="s">
@@ -25271,7 +25269,7 @@
       <c r="Q307" s="6">
         <v>20</v>
       </c>
-      <c r="R307" s="8" t="s">
+      <c r="R307" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S307" s="6" t="s">
@@ -25322,7 +25320,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J308" s="8" t="s">
+      <c r="J308" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K308" s="6" t="s">
@@ -25346,7 +25344,7 @@
       <c r="Q308" s="6">
         <v>20</v>
       </c>
-      <c r="R308" s="8" t="s">
+      <c r="R308" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S308" s="6" t="s">
@@ -25397,7 +25395,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J309" s="8" t="s">
+      <c r="J309" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K309" s="6" t="s">
@@ -25421,7 +25419,7 @@
       <c r="Q309" s="6">
         <v>20</v>
       </c>
-      <c r="R309" s="8" t="s">
+      <c r="R309" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S309" s="6" t="s">
@@ -25472,7 +25470,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J310" s="8" t="s">
+      <c r="J310" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K310" s="6" t="s">
@@ -25496,7 +25494,7 @@
       <c r="Q310" s="6">
         <v>20</v>
       </c>
-      <c r="R310" s="8" t="s">
+      <c r="R310" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S310" s="6" t="s">
@@ -25547,7 +25545,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J311" s="8" t="s">
+      <c r="J311" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K311" s="6" t="s">
@@ -25571,7 +25569,7 @@
       <c r="Q311" s="6">
         <v>20</v>
       </c>
-      <c r="R311" s="8" t="s">
+      <c r="R311" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S311" s="6" t="s">
@@ -25622,7 +25620,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J312" s="8" t="s">
+      <c r="J312" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K312" s="6" t="s">
@@ -25646,7 +25644,7 @@
       <c r="Q312" s="6">
         <v>30</v>
       </c>
-      <c r="R312" s="8" t="s">
+      <c r="R312" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S312" s="6" t="s">
@@ -25697,7 +25695,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J313" s="8" t="s">
+      <c r="J313" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K313" s="6" t="s">
@@ -25721,7 +25719,7 @@
       <c r="Q313" s="6">
         <v>20</v>
       </c>
-      <c r="R313" s="8" t="s">
+      <c r="R313" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S313" s="6" t="s">
@@ -25772,7 +25770,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J314" s="8" t="s">
+      <c r="J314" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K314" s="6" t="s">
@@ -25796,7 +25794,7 @@
       <c r="Q314" s="6">
         <v>10</v>
       </c>
-      <c r="R314" s="8" t="s">
+      <c r="R314" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S314" s="6" t="s">
@@ -25847,7 +25845,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J315" s="8" t="s">
+      <c r="J315" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K315" s="6" t="s">
@@ -25871,7 +25869,7 @@
       <c r="Q315" s="6">
         <v>20</v>
       </c>
-      <c r="R315" s="8" t="s">
+      <c r="R315" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S315" s="6" t="s">
@@ -25922,7 +25920,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J316" s="8" t="s">
+      <c r="J316" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K316" s="6" t="s">
@@ -25946,7 +25944,7 @@
       <c r="Q316" s="6">
         <v>10</v>
       </c>
-      <c r="R316" s="8" t="s">
+      <c r="R316" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S316" s="6" t="s">
@@ -25997,7 +25995,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="J317" s="8" t="s">
+      <c r="J317" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K317" s="6" t="s">
@@ -26021,7 +26019,7 @@
       <c r="Q317" s="6">
         <v>30</v>
       </c>
-      <c r="R317" s="8" t="s">
+      <c r="R317" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S317" s="6" t="s">
@@ -26072,7 +26070,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J318" s="8" t="s">
+      <c r="J318" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K318" s="6" t="s">
@@ -26096,7 +26094,7 @@
       <c r="Q318" s="6">
         <v>10</v>
       </c>
-      <c r="R318" s="8" t="s">
+      <c r="R318" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S318" s="6" t="s">
@@ -26147,7 +26145,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J319" s="8" t="s">
+      <c r="J319" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K319" s="6" t="s">
@@ -26171,7 +26169,7 @@
       <c r="Q319" s="6">
         <v>30</v>
       </c>
-      <c r="R319" s="8" t="s">
+      <c r="R319" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S319" s="6" t="s">
@@ -26222,7 +26220,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J320" s="8" t="s">
+      <c r="J320" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K320" s="6" t="s">
@@ -26246,7 +26244,7 @@
       <c r="Q320" s="6">
         <v>30</v>
       </c>
-      <c r="R320" s="8" t="s">
+      <c r="R320" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S320" s="6" t="s">
@@ -26297,7 +26295,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J321" s="8" t="s">
+      <c r="J321" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K321" s="6" t="s">
@@ -26321,7 +26319,7 @@
       <c r="Q321" s="6">
         <v>10</v>
       </c>
-      <c r="R321" s="8" t="s">
+      <c r="R321" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S321" s="6" t="s">
@@ -26372,7 +26370,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J322" s="8" t="s">
+      <c r="J322" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K322" s="6" t="s">
@@ -26396,7 +26394,7 @@
       <c r="Q322" s="6">
         <v>20</v>
       </c>
-      <c r="R322" s="8" t="s">
+      <c r="R322" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S322" s="6" t="s">
@@ -26447,7 +26445,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J323" s="8" t="s">
+      <c r="J323" s="10" t="s">
         <v>102</v>
       </c>
       <c r="K323" s="6" t="s">
@@ -26471,7 +26469,7 @@
       <c r="Q323" s="6">
         <v>10</v>
       </c>
-      <c r="R323" s="8" t="s">
+      <c r="R323" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S323" s="6" t="s">
@@ -26522,7 +26520,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J324" s="8" t="s">
+      <c r="J324" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K324" s="6" t="s">
@@ -26546,7 +26544,7 @@
       <c r="Q324" s="6">
         <v>30</v>
       </c>
-      <c r="R324" s="8" t="s">
+      <c r="R324" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S324" s="6" t="s">
@@ -26597,7 +26595,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J325" s="8" t="s">
+      <c r="J325" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K325" s="6" t="s">
@@ -26621,7 +26619,7 @@
       <c r="Q325" s="6">
         <v>30</v>
       </c>
-      <c r="R325" s="8" t="s">
+      <c r="R325" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S325" s="6" t="s">
@@ -26672,7 +26670,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J326" s="8" t="s">
+      <c r="J326" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K326" s="6" t="s">
@@ -26696,7 +26694,7 @@
       <c r="Q326" s="6">
         <v>20</v>
       </c>
-      <c r="R326" s="8" t="s">
+      <c r="R326" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S326" s="6" t="s">
@@ -26747,7 +26745,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J327" s="8" t="s">
+      <c r="J327" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K327" s="6" t="s">
@@ -26771,7 +26769,7 @@
       <c r="Q327" s="6">
         <v>20</v>
       </c>
-      <c r="R327" s="8" t="s">
+      <c r="R327" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S327" s="6" t="s">
@@ -26822,7 +26820,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J328" s="8" t="s">
+      <c r="J328" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K328" s="6" t="s">
@@ -26846,7 +26844,7 @@
       <c r="Q328" s="6">
         <v>20</v>
       </c>
-      <c r="R328" s="8" t="s">
+      <c r="R328" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S328" s="6" t="s">
@@ -26897,7 +26895,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="J329" s="8" t="s">
+      <c r="J329" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K329" s="6" t="s">
@@ -26921,7 +26919,7 @@
       <c r="Q329" s="6">
         <v>20</v>
       </c>
-      <c r="R329" s="8" t="s">
+      <c r="R329" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S329" s="6" t="s">
@@ -26972,7 +26970,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J330" s="8" t="s">
+      <c r="J330" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K330" s="6" t="s">
@@ -26996,7 +26994,7 @@
       <c r="Q330" s="6">
         <v>30</v>
       </c>
-      <c r="R330" s="8" t="s">
+      <c r="R330" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S330" s="6" t="s">
@@ -27047,7 +27045,7 @@
         <f t="shared" ref="I331:I346" si="6">F331-23</f>
         <v>8</v>
       </c>
-      <c r="J331" s="8" t="s">
+      <c r="J331" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K331" s="6" t="s">
@@ -27071,7 +27069,7 @@
       <c r="Q331" s="6">
         <v>20</v>
       </c>
-      <c r="R331" s="8" t="s">
+      <c r="R331" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S331" s="6" t="s">
@@ -27122,7 +27120,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J332" s="8" t="s">
+      <c r="J332" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K332" s="6" t="s">
@@ -27146,7 +27144,7 @@
       <c r="Q332" s="6">
         <v>10</v>
       </c>
-      <c r="R332" s="8" t="s">
+      <c r="R332" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S332" s="6" t="s">
@@ -27197,7 +27195,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J333" s="8" t="s">
+      <c r="J333" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K333" s="6" t="s">
@@ -27221,7 +27219,7 @@
       <c r="Q333" s="6">
         <v>20</v>
       </c>
-      <c r="R333" s="8" t="s">
+      <c r="R333" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S333" s="6" t="s">
@@ -27272,7 +27270,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J334" s="8" t="s">
+      <c r="J334" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K334" s="6" t="s">
@@ -27296,7 +27294,7 @@
       <c r="Q334" s="6">
         <v>10</v>
       </c>
-      <c r="R334" s="8" t="s">
+      <c r="R334" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S334" s="6" t="s">
@@ -27347,7 +27345,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J335" s="8" t="s">
+      <c r="J335" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K335" s="6" t="s">
@@ -27371,7 +27369,7 @@
       <c r="Q335" s="6">
         <v>30</v>
       </c>
-      <c r="R335" s="8" t="s">
+      <c r="R335" s="10" t="s">
         <v>159</v>
       </c>
       <c r="S335" s="6" t="s">
@@ -27422,7 +27420,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J336" s="8" t="s">
+      <c r="J336" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K336" s="6" t="s">
@@ -27446,7 +27444,7 @@
       <c r="Q336" s="6">
         <v>10</v>
       </c>
-      <c r="R336" s="8" t="s">
+      <c r="R336" s="10" t="s">
         <v>162</v>
       </c>
       <c r="S336" s="6" t="s">
@@ -27497,7 +27495,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J337" s="8" t="s">
+      <c r="J337" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K337" s="6" t="s">
@@ -27521,7 +27519,7 @@
       <c r="Q337" s="6">
         <v>30</v>
       </c>
-      <c r="R337" s="8" t="s">
+      <c r="R337" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S337" s="6" t="s">
@@ -27572,7 +27570,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J338" s="8" t="s">
+      <c r="J338" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K338" s="6" t="s">
@@ -27596,7 +27594,7 @@
       <c r="Q338" s="6">
         <v>30</v>
       </c>
-      <c r="R338" s="8" t="s">
+      <c r="R338" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S338" s="6" t="s">
@@ -27647,7 +27645,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J339" s="8" t="s">
+      <c r="J339" s="10" t="s">
         <v>82</v>
       </c>
       <c r="K339" s="6" t="s">
@@ -27671,7 +27669,7 @@
       <c r="Q339" s="6">
         <v>10</v>
       </c>
-      <c r="R339" s="8" t="s">
+      <c r="R339" s="10" t="s">
         <v>46</v>
       </c>
       <c r="S339" s="6" t="s">
@@ -27722,7 +27720,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J340" s="8" t="s">
+      <c r="J340" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K340" s="6" t="s">
@@ -27746,7 +27744,7 @@
       <c r="Q340" s="6">
         <v>20</v>
       </c>
-      <c r="R340" s="8" t="s">
+      <c r="R340" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S340" s="6" t="s">
@@ -27797,7 +27795,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J341" s="8" t="s">
+      <c r="J341" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K341" s="6" t="s">
@@ -27821,7 +27819,7 @@
       <c r="Q341" s="6">
         <v>10</v>
       </c>
-      <c r="R341" s="8" t="s">
+      <c r="R341" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S341" s="6" t="s">
@@ -27872,7 +27870,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J342" s="8" t="s">
+      <c r="J342" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K342" s="6" t="s">
@@ -27896,7 +27894,7 @@
       <c r="Q342" s="6">
         <v>30</v>
       </c>
-      <c r="R342" s="8" t="s">
+      <c r="R342" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S342" s="6" t="s">
@@ -27947,7 +27945,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J343" s="8" t="s">
+      <c r="J343" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K343" s="6" t="s">
@@ -27971,7 +27969,7 @@
       <c r="Q343" s="6">
         <v>30</v>
       </c>
-      <c r="R343" s="8" t="s">
+      <c r="R343" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S343" s="6" t="s">
@@ -28022,7 +28020,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J344" s="8" t="s">
+      <c r="J344" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K344" s="6" t="s">
@@ -28046,7 +28044,7 @@
       <c r="Q344" s="6">
         <v>20</v>
       </c>
-      <c r="R344" s="8" t="s">
+      <c r="R344" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S344" s="6" t="s">
@@ -28097,7 +28095,7 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J345" s="8" t="s">
+      <c r="J345" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K345" s="6" t="s">
@@ -28121,7 +28119,7 @@
       <c r="Q345" s="6">
         <v>30</v>
       </c>
-      <c r="R345" s="8" t="s">
+      <c r="R345" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S345" s="6" t="s">
@@ -28172,7 +28170,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J346" s="8" t="s">
+      <c r="J346" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K346" s="6" t="s">
@@ -28196,7 +28194,7 @@
       <c r="Q346" s="6">
         <v>20</v>
       </c>
-      <c r="R346" s="8" t="s">
+      <c r="R346" s="10" t="s">
         <v>39</v>
       </c>
       <c r="S346" s="6" t="s">

--- a/问卷培训教程-5公司资料表格.xlsx
+++ b/问卷培训教程-5公司资料表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="601"/>
+    <workbookView windowWidth="22596" windowHeight="9240" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Evansdata注册信息资料" sheetId="1" r:id="rId1"/>
@@ -1242,9 +1242,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1272,9 +1272,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1287,7 +1325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,7 +1339,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1316,15 +1354,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1348,61 +1402,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,13 +1457,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,19 +1505,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,25 +1559,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,103 +1637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,6 +1666,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1681,37 +1701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1734,8 +1728,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1754,162 +1763,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2272,11 +2272,11 @@
   <dimension ref="A1:Z354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="R71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A214" sqref="A214"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
